--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">甲肝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,6 +415,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +442,16 @@
         <v>1502.8569406427</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>1251</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.0914391479077</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +462,28 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-1968.30147361479</v>
+        <v>-2438.39420227147</v>
       </c>
       <c r="D3" t="n">
-        <v>-3648.84658554151</v>
+        <v>-4367.79137272978</v>
       </c>
       <c r="E3" t="n">
-        <v>4380.94909684815</v>
+        <v>4851.04182550484</v>
       </c>
       <c r="F3" t="n">
-        <v>6061.49420877487</v>
+        <v>6780.43899596314</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>1295</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-88.6761883833199</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -464,22 +494,28 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-84999.2347690366</v>
+        <v>-137153.867011669</v>
       </c>
       <c r="D4" t="n">
-        <v>-130805.66620205</v>
+        <v>-210569.293020336</v>
       </c>
       <c r="E4" t="n">
-        <v>88061.5827257647</v>
+        <v>140216.214968397</v>
       </c>
       <c r="F4" t="n">
-        <v>133868.014158778</v>
+        <v>213631.640977064</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>1529</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.17397836403666</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -490,22 +526,28 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-2304614.00362337</v>
+        <v>-3836503.62161824</v>
       </c>
       <c r="D5" t="n">
-        <v>-3525349.8854709</v>
+        <v>-5868172.88244089</v>
       </c>
       <c r="E5" t="n">
-        <v>2307435.94326495</v>
+        <v>3839325.56125983</v>
       </c>
       <c r="F5" t="n">
-        <v>3528171.82511249</v>
+        <v>5870994.82208247</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>1187</v>
+      </c>
+      <c r="I5" t="n">
+        <v>223.969820793228</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -516,22 +558,28 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-61928696.1619658</v>
+        <v>-113317326.321691</v>
       </c>
       <c r="D6" t="n">
-        <v>-94712519.5227328</v>
+        <v>-173304647.249649</v>
       </c>
       <c r="E6" t="n">
-        <v>61931536.864842</v>
+        <v>113320167.024567</v>
       </c>
       <c r="F6" t="n">
-        <v>94715360.225609</v>
+        <v>173307487.952525</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>1100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>320.351438102927</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -542,22 +590,28 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-1143244662.01694</v>
+        <v>-3163084395.02267</v>
       </c>
       <c r="D7" t="n">
-        <v>-1748442580.28796</v>
+        <v>-4837520880.1158</v>
       </c>
       <c r="E7" t="n">
-        <v>1143247500.88597</v>
+        <v>3163087233.8917</v>
       </c>
       <c r="F7" t="n">
-        <v>1748445419.15699</v>
+        <v>4837523718.98483</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>1249</v>
+      </c>
+      <c r="I7" t="n">
+        <v>170.434513612725</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -568,22 +622,28 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-25522049426.0381</v>
+        <v>-75330203407.8504</v>
       </c>
       <c r="D8" t="n">
-        <v>-39032607085.5123</v>
+        <v>-115207605084.358</v>
       </c>
       <c r="E8" t="n">
-        <v>25522052465.6043</v>
+        <v>75330206447.4167</v>
       </c>
       <c r="F8" t="n">
-        <v>39032610125.0785</v>
+        <v>115207608123.924</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>1401</v>
+      </c>
+      <c r="I8" t="n">
+        <v>118.783127146834</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -594,22 +654,28 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-388437615641.463</v>
+        <v>-2369373896699.6</v>
       </c>
       <c r="D9" t="n">
-        <v>-594064069241.8</v>
+        <v>-3623644673665.44</v>
       </c>
       <c r="E9" t="n">
-        <v>388437618803.979</v>
+        <v>2369373899862.12</v>
       </c>
       <c r="F9" t="n">
-        <v>594064072404.316</v>
+        <v>3623644676827.95</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>1514</v>
+      </c>
+      <c r="I9" t="n">
+        <v>67.2578910046141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -620,22 +686,28 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-6353169349079.02</v>
+        <v>-45627800324532.2</v>
       </c>
       <c r="D10" t="n">
-        <v>-9716334049786.53</v>
+        <v>-69781698790126</v>
       </c>
       <c r="E10" t="n">
-        <v>6353169351966.89</v>
+        <v>45627800327420.1</v>
       </c>
       <c r="F10" t="n">
-        <v>9716334052674.4</v>
+        <v>69781698793013.8</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>1335</v>
+      </c>
+      <c r="I10" t="n">
+        <v>108.935377163511</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -646,22 +718,28 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-99666631157581.5</v>
+        <v>-715427528576249</v>
       </c>
       <c r="D11" t="n">
-        <v>-152426958682089</v>
+        <v>-1094151985186025</v>
       </c>
       <c r="E11" t="n">
-        <v>99666631160340.8</v>
+        <v>715427528579008</v>
       </c>
       <c r="F11" t="n">
-        <v>152426958684848</v>
+        <v>1094151985188784</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>1181</v>
+      </c>
+      <c r="I11" t="n">
+        <v>198.604688488908</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -672,22 +750,28 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-1449020330480181</v>
+        <v>-9974268543304254</v>
       </c>
       <c r="D12" t="n">
-        <v>-2216085358532967</v>
+        <v>-15254327365829026</v>
       </c>
       <c r="E12" t="n">
-        <v>1449020330482867</v>
+        <v>9974268543306938</v>
       </c>
       <c r="F12" t="n">
-        <v>2216085358535653</v>
+        <v>15254327365831710</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>1243</v>
+      </c>
+      <c r="I12" t="n">
+        <v>99.8867412466191</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -698,22 +782,28 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-20902032775919936</v>
+        <v>-314860361876481856</v>
       </c>
       <c r="D13" t="n">
-        <v>-31966900549234236</v>
+        <v>-481537369255140224</v>
       </c>
       <c r="E13" t="n">
-        <v>20902032775922456</v>
+        <v>314860361876484416</v>
       </c>
       <c r="F13" t="n">
-        <v>31966900549236756</v>
+        <v>481537369255142784</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>1196</v>
+      </c>
+      <c r="I13" t="n">
+        <v>65.0135459164242</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -724,22 +814,28 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-343458717142640512</v>
+        <v>-6720932229389412352</v>
       </c>
       <c r="D14" t="n">
-        <v>-525274779317865920</v>
+        <v>-10278778838321584128</v>
       </c>
       <c r="E14" t="n">
-        <v>343458717142642944</v>
+        <v>6720932229389414400</v>
       </c>
       <c r="F14" t="n">
-        <v>525274779317868352</v>
+        <v>10278778838321588224</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>960</v>
+      </c>
+      <c r="I14" t="n">
+        <v>279.502336937495</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -750,22 +846,28 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-5130518509643529216</v>
+        <v>-153007898219281121280</v>
       </c>
       <c r="D15" t="n">
-        <v>-7846450951541888000</v>
+        <v>-234005386847248482304</v>
       </c>
       <c r="E15" t="n">
-        <v>5130518509643531264</v>
+        <v>153007898219281121280</v>
       </c>
       <c r="F15" t="n">
-        <v>7846450951541890048</v>
+        <v>234005386847248482304</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>745</v>
+      </c>
+      <c r="I15" t="n">
+        <v>440.24675435992</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -776,22 +878,28 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-117341968938146119680</v>
+        <v>-4381569208079257436160</v>
       </c>
       <c r="D16" t="n">
-        <v>-179459055083788632064</v>
+        <v>-6701031838664753152000</v>
       </c>
       <c r="E16" t="n">
-        <v>117341968938146119680</v>
+        <v>4381569208079257436160</v>
       </c>
       <c r="F16" t="n">
-        <v>179459055083788632064</v>
+        <v>6701031838664753152000</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>1128</v>
+      </c>
+      <c r="I16" t="n">
+        <v>377.058932226029</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -802,22 +910,28 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-2555804058821999460352</v>
+        <v>-85531325629060748410880</v>
       </c>
       <c r="D17" t="n">
-        <v>-3908765001354972233728</v>
+        <v>-130808874406616724668416</v>
       </c>
       <c r="E17" t="n">
-        <v>2555804058821999460352</v>
+        <v>85531325629060748410880</v>
       </c>
       <c r="F17" t="n">
-        <v>3908765001354972233728</v>
+        <v>130808874406616724668416</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>1142</v>
+      </c>
+      <c r="I17" t="n">
+        <v>245.479615308916</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -828,22 +942,28 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-32237886962540165988352</v>
+        <v>-2187507590857815205347328</v>
       </c>
       <c r="D18" t="n">
-        <v>-49303593458918920028160</v>
+        <v>-3345504160160214333521920</v>
       </c>
       <c r="E18" t="n">
-        <v>32237886962540165988352</v>
+        <v>2187507590857815205347328</v>
       </c>
       <c r="F18" t="n">
-        <v>49303593458918920028160</v>
+        <v>3345504160160214333521920</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>1095</v>
+      </c>
+      <c r="I18" t="n">
+        <v>302.270642413416</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -854,22 +974,28 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-340925013556359814184960</v>
+        <v>-52552316730355841354432512</v>
       </c>
       <c r="D19" t="n">
-        <v>-521399814072514623045632</v>
+        <v>-80371832757169319592329216</v>
       </c>
       <c r="E19" t="n">
-        <v>340925013556359814184960</v>
+        <v>52552316730355841354432512</v>
       </c>
       <c r="F19" t="n">
-        <v>521399814072514623045632</v>
+        <v>80371832757169319592329216</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>1089</v>
+      </c>
+      <c r="I19" t="n">
+        <v>307.921190329692</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -880,22 +1006,28 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-6002421928268779686461440</v>
+        <v>-1030029334794053397411528704</v>
       </c>
       <c r="D20" t="n">
-        <v>-9179912159383834811432960</v>
+        <v>-1575293927683813234528223232</v>
       </c>
       <c r="E20" t="n">
-        <v>6002421928268779686461440</v>
+        <v>1030029334794053397411528704</v>
       </c>
       <c r="F20" t="n">
-        <v>9179912159383834811432960</v>
+        <v>1575293927683813234528223232</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>1038</v>
+      </c>
+      <c r="I20" t="n">
+        <v>458.256539670674</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -906,22 +1038,28 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-68632750694145730520547328</v>
+        <v>-27445095468833548179039322112</v>
       </c>
       <c r="D21" t="n">
-        <v>-104964734262002275017818112</v>
+        <v>-41973651406151807342726873088</v>
       </c>
       <c r="E21" t="n">
-        <v>68632750694145730520547328</v>
+        <v>27445095468833548179039322112</v>
       </c>
       <c r="F21" t="n">
-        <v>104964734262002275017818112</v>
+        <v>41973651406151807342726873088</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>1057</v>
+      </c>
+      <c r="I21" t="n">
+        <v>500.367830617657</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -932,22 +1070,28 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-829810202462896496201170944</v>
+        <v>-505741938534341229338196705280</v>
       </c>
       <c r="D22" t="n">
-        <v>-1269085189045844117641232384</v>
+        <v>-773465548830685169934057603072</v>
       </c>
       <c r="E22" t="n">
-        <v>829810202462896496201170944</v>
+        <v>505741938534341229338196705280</v>
       </c>
       <c r="F22" t="n">
-        <v>1269085189045844117641232384</v>
+        <v>773465548830685169934057603072</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>1105</v>
+      </c>
+      <c r="I22" t="n">
+        <v>317.644966945943</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +1102,28 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-10870161711149970804227178496</v>
+        <v>-6520762423028730101975385899008</v>
       </c>
       <c r="D23" t="n">
-        <v>-16624477729014768303366733824</v>
+        <v>-9972645537245578161477927305216</v>
       </c>
       <c r="E23" t="n">
-        <v>10870161711149970804227178496</v>
+        <v>6520762423028730101975385899008</v>
       </c>
       <c r="F23" t="n">
-        <v>16624477729014768303366733824</v>
+        <v>9972645537245578161477927305216</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>940</v>
+      </c>
+      <c r="I23" t="n">
+        <v>419.752996755304</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -984,22 +1134,28 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-137337698054343561308499083264</v>
+        <v>-104432535333479516727490664988672</v>
       </c>
       <c r="D24" t="n">
-        <v>-210039883796452714819421732864</v>
+        <v>-159715780130037255868370909134848</v>
       </c>
       <c r="E24" t="n">
-        <v>137337698054343561308499083264</v>
+        <v>104432535333479516727490664988672</v>
       </c>
       <c r="F24" t="n">
-        <v>210039883796452714819421732864</v>
+        <v>159715780130037255868370909134848</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>1026</v>
+      </c>
+      <c r="I24" t="n">
+        <v>298.02967891418</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1010,22 +1166,28 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-1193280574228406281196565168128</v>
+        <v>-2149596991858050694925036518637568</v>
       </c>
       <c r="D25" t="n">
-        <v>-1824965153037032245454211907584</v>
+        <v>-3287524902306237224564796143173632</v>
       </c>
       <c r="E25" t="n">
-        <v>1193280574228406281196565168128</v>
+        <v>2149596991858050694925036518637568</v>
       </c>
       <c r="F25" t="n">
-        <v>1824965153037032245454211907584</v>
+        <v>3287524902306237224564796143173632</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>1068</v>
+      </c>
+      <c r="I25" t="n">
+        <v>175.734023712335</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1036,22 +1198,28 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-13690227971097075216103713538048</v>
+        <v>-23704336134192590145121397873049600</v>
       </c>
       <c r="D26" t="n">
-        <v>-20937396890534481830775795744768</v>
+        <v>-36252653696931549668213592762089472</v>
       </c>
       <c r="E26" t="n">
-        <v>13690227971097075216103713538048</v>
+        <v>23704336134192590145121397873049600</v>
       </c>
       <c r="F26" t="n">
-        <v>20937396890534481830775795744768</v>
+        <v>36252653696931549668213592762089472</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>956</v>
+      </c>
+      <c r="I26" t="n">
+        <v>266.928538293649</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1062,22 +1230,28 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-162609367281969150109724696379392</v>
+        <v>-457434835764558493216923661308526592</v>
       </c>
       <c r="D27" t="n">
-        <v>-248689566608323528065914215858176</v>
+        <v>-699586210556836951996240950227632128</v>
       </c>
       <c r="E27" t="n">
-        <v>162609367281969150109724696379392</v>
+        <v>457434835764558493216923661308526592</v>
       </c>
       <c r="F27" t="n">
-        <v>248689566608323528065914215858176</v>
+        <v>699586210556836951996240950227632128</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>830</v>
+      </c>
+      <c r="I27" t="n">
+        <v>339.78236179598</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1088,22 +1262,28 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-1916492508364205725320307508510720</v>
+        <v>-12363500052668059610360456670479384576</v>
       </c>
       <c r="D28" t="n">
-        <v>-2931022359165418318724973501349888</v>
+        <v>-18908341636484175993478083789830750208</v>
       </c>
       <c r="E28" t="n">
-        <v>1916492508364205725320307508510720</v>
+        <v>12363500052668059610360456670479384576</v>
       </c>
       <c r="F28" t="n">
-        <v>2931022359165418318724973501349888</v>
+        <v>18908341636484175993478083789830750208</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>1050</v>
+      </c>
+      <c r="I28" t="n">
+        <v>435.898138948242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1114,22 +1294,28 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-55901250968808762714856403287146496</v>
+        <v>-230120658128071250351736266993218617344</v>
       </c>
       <c r="D29" t="n">
-        <v>-85493585693557405146557618128420864</v>
+        <v>-351939176039325219071760091599675064320</v>
       </c>
       <c r="E29" t="n">
-        <v>55901250968808762714856403287146496</v>
+        <v>230120658128071250351736266993218617344</v>
       </c>
       <c r="F29" t="n">
-        <v>85493585693557405146557618128420864</v>
+        <v>351939176039325219071760091599675064320</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>896</v>
+      </c>
+      <c r="I29" t="n">
+        <v>474.244694351418</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1140,22 +1326,28 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-393892895981311622457289101283426304</v>
+        <v>-6112656867963662553811534759424482607104</v>
       </c>
       <c r="D30" t="n">
-        <v>-602407199714574924740660562623463424</v>
+        <v>-9348501951202395568714939630735560015872</v>
       </c>
       <c r="E30" t="n">
-        <v>393892895981311622457289101283426304</v>
+        <v>6112656867963662553811534759424482607104</v>
       </c>
       <c r="F30" t="n">
-        <v>602407199714574924740660562623463424</v>
+        <v>9348501951202395568714939630735560015872</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>960</v>
+      </c>
+      <c r="I30" t="n">
+        <v>420.336116476285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1166,22 +1358,28 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-3270400629386389159024986457404080128</v>
+        <v>-129593787901010224353911501204439101865984</v>
       </c>
       <c r="D31" t="n">
-        <v>-5001646145928233520284402554551402496</v>
+        <v>-198196595232720592067042797725529359253504</v>
       </c>
       <c r="E31" t="n">
-        <v>3270400629386389159024986457404080128</v>
+        <v>129593787901010224353911501204439101865984</v>
       </c>
       <c r="F31" t="n">
-        <v>5001646145928233520284402554551402496</v>
+        <v>198196595232720592067042797725529359253504</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>1038</v>
+      </c>
+      <c r="I31" t="n">
+        <v>342.403030812013</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1192,22 +1390,28 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-47791131391308285299475548957449388032</v>
+        <v>-1956899833525078737108237446099809035354112</v>
       </c>
       <c r="D32" t="n">
-        <v>-73090228146676899215962865779393691648</v>
+        <v>-2992820030173103971886600631511731522240512</v>
       </c>
       <c r="E32" t="n">
-        <v>47791131391308285299475548957449388032</v>
+        <v>1956899833525078737108237446099809035354112</v>
       </c>
       <c r="F32" t="n">
-        <v>73090228146676899215962865779393691648</v>
+        <v>2992820030173103971886600631511731522240512</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>1069</v>
+      </c>
+      <c r="I32" t="n">
+        <v>409.994951097044</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1218,22 +1422,28 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-276483325877818998795725857173073297408</v>
+        <v>-50917519158963655847023073580724272874127360</v>
       </c>
       <c r="D33" t="n">
-        <v>-422844757570168239012600756952128028672</v>
+        <v>-77871625626931358614920422664119019068456960</v>
       </c>
       <c r="E33" t="n">
-        <v>276483325877818998795725857173073297408</v>
+        <v>50917519158963655847023073580724272874127360</v>
       </c>
       <c r="F33" t="n">
-        <v>422844757570168239012600756952128028672</v>
+        <v>77871625626931358614920422664119019068456960</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>1116</v>
+      </c>
+      <c r="I33" t="n">
+        <v>423.839569238597</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1244,22 +1454,28 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-1660624100065058300841310439410765922304</v>
+        <v>-1443012415870121261411736994083973352640217088</v>
       </c>
       <c r="D34" t="n">
-        <v>-2539705397342811667893804218108419768320</v>
+        <v>-2206897046040979112149907527694226589608837120</v>
       </c>
       <c r="E34" t="n">
-        <v>1660624100065058300841310439410765922304</v>
+        <v>1443012415870121261411736994083973352640217088</v>
       </c>
       <c r="F34" t="n">
-        <v>2539705397342811667893804218108419768320</v>
+        <v>2206897046040979112149907527694226589608837120</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>945</v>
+      </c>
+      <c r="I34" t="n">
+        <v>462.024090900645</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1270,22 +1486,28 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-15392567992952586166946288796082580226048</v>
+        <v>-12435070938008994781618332373288085985555382272</v>
       </c>
       <c r="D35" t="n">
-        <v>-23540901284725641149493988561068660621312</v>
+        <v>-19017799859923097238542297475063669824962953216</v>
       </c>
       <c r="E35" t="n">
-        <v>15392567992952586166946288796082580226048</v>
+        <v>12435070938008994781618332373288085985555382272</v>
       </c>
       <c r="F35" t="n">
-        <v>23540901284725641149493988561068660621312</v>
+        <v>19017799859923097238542297475063669824962953216</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>752</v>
+      </c>
+      <c r="I35" t="n">
+        <v>593.187723494909</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1296,22 +1518,28 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-159120687359812906549920825709621304885248</v>
+        <v>-299447535861228584363952649845816258437553586176</v>
       </c>
       <c r="D36" t="n">
-        <v>-243354091091886922553993304573114392248320</v>
+        <v>-457965485998892173675567228415548876878080114688</v>
       </c>
       <c r="E36" t="n">
-        <v>159120687359812906549920825709621304885248</v>
+        <v>299447535861228584363952649845816258437553586176</v>
       </c>
       <c r="F36" t="n">
-        <v>243354091091886922553993304573114392248320</v>
+        <v>457965485998892173675567228415548876878080114688</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>749</v>
+      </c>
+      <c r="I36" t="n">
+        <v>561.194177536387</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1262.09143914791</v>
+        <v>1262.09143914802</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.66333954832</v>
+        <v>1104.66333954842</v>
       </c>
       <c r="D2" t="n">
-        <v>1021.32593765312</v>
+        <v>1021.32593765321</v>
       </c>
       <c r="E2" t="n">
-        <v>1419.5195387475</v>
+        <v>1419.51953874763</v>
       </c>
       <c r="F2" t="n">
-        <v>1502.8569406427</v>
+        <v>1502.85694064284</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>11.0914391479077</v>
+        <v>11.091439148023</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-2438.39420227147</v>
+        <v>1015.39410903967</v>
       </c>
       <c r="D3" t="n">
-        <v>-4367.79137272978</v>
+        <v>914.322029799297</v>
       </c>
       <c r="E3" t="n">
-        <v>4851.04182550484</v>
+        <v>1397.2535141937</v>
       </c>
       <c r="F3" t="n">
-        <v>6780.43899596314</v>
+        <v>1498.32559343407</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-88.6761883833199</v>
+        <v>-88.6761883833153</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-137153.867011669</v>
+        <v>1246.22549865832</v>
       </c>
       <c r="D4" t="n">
-        <v>-210569.293020336</v>
+        <v>1095.38288521726</v>
       </c>
       <c r="E4" t="n">
-        <v>140216.214968397</v>
+        <v>1816.12245806976</v>
       </c>
       <c r="F4" t="n">
-        <v>213631.640977064</v>
+        <v>1966.96507151083</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>2.17397836403666</v>
+        <v>2.17397836404211</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1410.96982079323</v>
+        <v>1410.96982079312</v>
       </c>
       <c r="C5" t="n">
-        <v>-3836503.62161824</v>
+        <v>1113.98254915324</v>
       </c>
       <c r="D5" t="n">
-        <v>-5868172.88244089</v>
+        <v>956.766984223197</v>
       </c>
       <c r="E5" t="n">
-        <v>3839325.56125983</v>
+        <v>1707.95709243301</v>
       </c>
       <c r="F5" t="n">
-        <v>5870994.82208247</v>
+        <v>1865.17265736305</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>223.969820793228</v>
+        <v>223.969820793123</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-113317326.321691</v>
+        <v>1090.09718659143</v>
       </c>
       <c r="D6" t="n">
-        <v>-173304647.249649</v>
+        <v>915.271146285944</v>
       </c>
       <c r="E6" t="n">
-        <v>113320167.024567</v>
+        <v>1750.60568961444</v>
       </c>
       <c r="F6" t="n">
-        <v>173307487.952525</v>
+        <v>1925.43172991992</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>320.351438102927</v>
+        <v>320.351438102931</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1419.43451361272</v>
+        <v>1419.43451361273</v>
       </c>
       <c r="C7" t="n">
-        <v>-3163084395.02267</v>
+        <v>1060.59127593553</v>
       </c>
       <c r="D7" t="n">
-        <v>-4837520880.1158</v>
+        <v>870.631140535669</v>
       </c>
       <c r="E7" t="n">
-        <v>3163087233.8917</v>
+        <v>1778.27775128993</v>
       </c>
       <c r="F7" t="n">
-        <v>4837523718.98483</v>
+        <v>1968.23788668979</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>170.434513612725</v>
+        <v>170.434513612729</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1519.78312714683</v>
+        <v>1519.78312714684</v>
       </c>
       <c r="C8" t="n">
-        <v>-75330203407.8504</v>
+        <v>1106.78632925253</v>
       </c>
       <c r="D8" t="n">
-        <v>-115207605084.358</v>
+        <v>888.159030726473</v>
       </c>
       <c r="E8" t="n">
-        <v>75330206447.4167</v>
+        <v>1932.77992504115</v>
       </c>
       <c r="F8" t="n">
-        <v>115207608123.924</v>
+        <v>2151.4072235672</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>118.783127146834</v>
+        <v>118.783127146839</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1581.25789100461</v>
+        <v>1581.25789100462</v>
       </c>
       <c r="C9" t="n">
-        <v>-2369373896699.6</v>
+        <v>1123.32564849238</v>
       </c>
       <c r="D9" t="n">
-        <v>-3623644673665.44</v>
+        <v>880.910962473305</v>
       </c>
       <c r="E9" t="n">
-        <v>2369373899862.12</v>
+        <v>2039.19013351686</v>
       </c>
       <c r="F9" t="n">
-        <v>3623644676827.95</v>
+        <v>2281.60481953593</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1514</v>
       </c>
       <c r="I9" t="n">
-        <v>67.2578910046141</v>
+        <v>67.2578910046186</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-45627800324532.2</v>
+        <v>1001.29055308475</v>
       </c>
       <c r="D10" t="n">
-        <v>-69781698790126</v>
+        <v>766.96853754301</v>
       </c>
       <c r="E10" t="n">
-        <v>45627800327420.1</v>
+        <v>1886.58020124228</v>
       </c>
       <c r="F10" t="n">
-        <v>69781698793013.8</v>
+        <v>2120.90221678402</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>108.935377163511</v>
+        <v>108.935377163515</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-715427528576249</v>
+        <v>934.335545489992</v>
       </c>
       <c r="D11" t="n">
-        <v>-1094151985186025</v>
+        <v>698.624299429003</v>
       </c>
       <c r="E11" t="n">
-        <v>715427528579008</v>
+        <v>1824.87383148783</v>
       </c>
       <c r="F11" t="n">
-        <v>1094151985188784</v>
+        <v>2060.58507754882</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>198.604688488908</v>
+        <v>198.604688488911</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-9974268543304254</v>
+        <v>888.590428569904</v>
       </c>
       <c r="D12" t="n">
-        <v>-15254327365829026</v>
+        <v>648.100487540683</v>
       </c>
       <c r="E12" t="n">
-        <v>9974268543306938</v>
+        <v>1797.18305392334</v>
       </c>
       <c r="F12" t="n">
-        <v>15254327365831710</v>
+        <v>2037.67299495256</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>99.8867412466191</v>
+        <v>99.8867412466223</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1261.01354591642</v>
+        <v>1261.01354591643</v>
       </c>
       <c r="C13" t="n">
-        <v>-314860361876481856</v>
+        <v>815.521949336314</v>
       </c>
       <c r="D13" t="n">
-        <v>-481537369255140224</v>
+        <v>579.692943462775</v>
       </c>
       <c r="E13" t="n">
-        <v>314860361876484416</v>
+        <v>1706.50514249654</v>
       </c>
       <c r="F13" t="n">
-        <v>481537369255142784</v>
+        <v>1942.33414837008</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>65.0135459164242</v>
+        <v>65.0135459164269</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1239.5023369375</v>
+        <v>1239.50233693761</v>
       </c>
       <c r="C14" t="n">
-        <v>-6720932229389412352</v>
+        <v>783.649612563886</v>
       </c>
       <c r="D14" t="n">
-        <v>-10278778838321584128</v>
+        <v>542.335756951199</v>
       </c>
       <c r="E14" t="n">
-        <v>6720932229389414400</v>
+        <v>1695.35506131133</v>
       </c>
       <c r="F14" t="n">
-        <v>10278778838321588224</v>
+        <v>1936.66891692401</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>279.502336937495</v>
+        <v>279.502336937606</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-153007898219281121280</v>
+        <v>732.700964198295</v>
       </c>
       <c r="D15" t="n">
-        <v>-234005386847248482304</v>
+        <v>493.137693812611</v>
       </c>
       <c r="E15" t="n">
-        <v>153007898219281121280</v>
+        <v>1637.79254452155</v>
       </c>
       <c r="F15" t="n">
-        <v>234005386847248482304</v>
+        <v>1877.35581490723</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>440.24675435992</v>
+        <v>440.246754359923</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-4381569208079257436160</v>
+        <v>909.858994888088</v>
       </c>
       <c r="D16" t="n">
-        <v>-6701031838664753152000</v>
+        <v>594.779180597679</v>
       </c>
       <c r="E16" t="n">
-        <v>4381569208079257436160</v>
+        <v>2100.25886956398</v>
       </c>
       <c r="F16" t="n">
-        <v>6701031838664753152000</v>
+        <v>2415.33868385439</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>377.058932226029</v>
+        <v>377.058932226032</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1387.47961530892</v>
+        <v>1387.47961530881</v>
       </c>
       <c r="C17" t="n">
-        <v>-85531325629060748410880</v>
+        <v>820.331709635831</v>
       </c>
       <c r="D17" t="n">
-        <v>-130808874406616724668416</v>
+        <v>520.101743897148</v>
       </c>
       <c r="E17" t="n">
-        <v>85531325629060748410880</v>
+        <v>1954.62752098179</v>
       </c>
       <c r="F17" t="n">
-        <v>130808874406616724668416</v>
+        <v>2254.85748672047</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>245.479615308916</v>
+        <v>245.47961530881</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-2187507590857815205347328</v>
+        <v>807.994249179055</v>
       </c>
       <c r="D18" t="n">
-        <v>-3345504160160214333521920</v>
+        <v>496.050169721624</v>
       </c>
       <c r="E18" t="n">
-        <v>2187507590857815205347328</v>
+        <v>1986.54703564778</v>
       </c>
       <c r="F18" t="n">
-        <v>3345504160160214333521920</v>
+        <v>2298.49111510521</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>302.270642413416</v>
+        <v>302.270642413418</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-52552316730355841354432512</v>
+        <v>790.081155726927</v>
       </c>
       <c r="D19" t="n">
-        <v>-80371832757169319592329216</v>
+        <v>468.839446156544</v>
       </c>
       <c r="E19" t="n">
-        <v>52552316730355841354432512</v>
+        <v>2003.76122493246</v>
       </c>
       <c r="F19" t="n">
-        <v>80371832757169319592329216</v>
+        <v>2325.00293450284</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>307.921190329692</v>
+        <v>307.921190329694</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1496.25653967067</v>
+        <v>1496.25653967068</v>
       </c>
       <c r="C20" t="n">
-        <v>-1030029334794053397411528704</v>
+        <v>827.696743189856</v>
       </c>
       <c r="D20" t="n">
-        <v>-1575293927683813234528223232</v>
+        <v>473.782565276212</v>
       </c>
       <c r="E20" t="n">
-        <v>1030029334794053397411528704</v>
+        <v>2164.8163361515</v>
       </c>
       <c r="F20" t="n">
-        <v>1575293927683813234528223232</v>
+        <v>2518.73051406514</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>458.256539670674</v>
+        <v>458.256539670676</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-27445095468833548179039322112</v>
+        <v>842.56291806032</v>
       </c>
       <c r="D21" t="n">
-        <v>-41973651406151807342726873088</v>
+        <v>464.168054462472</v>
       </c>
       <c r="E21" t="n">
-        <v>27445095468833548179039322112</v>
+        <v>2272.172743175</v>
       </c>
       <c r="F21" t="n">
-        <v>41973651406151807342726873088</v>
+        <v>2650.56760677285</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>500.367830617657</v>
+        <v>500.367830617659</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-505741938534341229338196705280</v>
+        <v>752.700748915843</v>
       </c>
       <c r="D22" t="n">
-        <v>-773465548830685169934057603072</v>
+        <v>398.053702503257</v>
       </c>
       <c r="E22" t="n">
-        <v>505741938534341229338196705280</v>
+        <v>2092.58918497605</v>
       </c>
       <c r="F22" t="n">
-        <v>773465548830685169934057603072</v>
+        <v>2447.23623138863</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>317.644966945943</v>
+        <v>317.644966945944</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-6520762423028730101975385899008</v>
+        <v>703.490255162218</v>
       </c>
       <c r="D23" t="n">
-        <v>-9972645537245578161477927305216</v>
+        <v>356.085744886771</v>
       </c>
       <c r="E23" t="n">
-        <v>6520762423028730101975385899008</v>
+        <v>2016.01573834839</v>
       </c>
       <c r="F23" t="n">
-        <v>9972645537245578161477927305216</v>
+        <v>2363.42024862384</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>419.752996755304</v>
+        <v>419.752996755305</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-104432535333479516727490664988672</v>
+        <v>669.753509593469</v>
       </c>
       <c r="D24" t="n">
-        <v>-159715780130037255868370909134848</v>
+        <v>323.400627154971</v>
       </c>
       <c r="E24" t="n">
-        <v>104432535333479516727490664988672</v>
+        <v>1978.30584823489</v>
       </c>
       <c r="F24" t="n">
-        <v>159715780130037255868370909134848</v>
+        <v>2324.65873067339</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-2149596991858050694925036518637568</v>
+        <v>615.03636894643</v>
       </c>
       <c r="D25" t="n">
-        <v>-3287524902306237224564796143173632</v>
+        <v>282.223934196481</v>
       </c>
       <c r="E25" t="n">
-        <v>2149596991858050694925036518637568</v>
+        <v>1872.43167847824</v>
       </c>
       <c r="F25" t="n">
-        <v>3287524902306237224564796143173632</v>
+        <v>2205.24411322819</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>175.734023712335</v>
+        <v>175.734023712336</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1222.92853829365</v>
+        <v>1222.92853829376</v>
       </c>
       <c r="C26" t="n">
-        <v>-23704336134192590145121397873049600</v>
+        <v>591.090789940441</v>
       </c>
       <c r="D26" t="n">
-        <v>-36252653696931549668213592762089472</v>
+        <v>256.616090055184</v>
       </c>
       <c r="E26" t="n">
-        <v>23704336134192590145121397873049600</v>
+        <v>1854.76628664707</v>
       </c>
       <c r="F26" t="n">
-        <v>36252653696931549668213592762089472</v>
+        <v>2189.24098653233</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>266.928538293649</v>
+        <v>266.928538293757</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-457434835764558493216923661308526592</v>
+        <v>552.533101479337</v>
       </c>
       <c r="D27" t="n">
-        <v>-699586210556836951996240950227632128</v>
+        <v>225.781080668829</v>
       </c>
       <c r="E27" t="n">
-        <v>457434835764558493216923661308526592</v>
+        <v>1787.03162211263</v>
       </c>
       <c r="F27" t="n">
-        <v>699586210556836951996240950227632128</v>
+        <v>2113.78364292313</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>339.78236179598</v>
+        <v>339.782361795981</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-12363500052668059610360456670479384576</v>
+        <v>685.725117915001</v>
       </c>
       <c r="D28" t="n">
-        <v>-18908341636484175993478083789830750208</v>
+        <v>262.139107481331</v>
       </c>
       <c r="E28" t="n">
-        <v>12363500052668059610360456670479384576</v>
+        <v>2286.07115998148</v>
       </c>
       <c r="F28" t="n">
-        <v>18908341636484175993478083789830750208</v>
+        <v>2709.65717041515</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>435.898138948242</v>
+        <v>435.898138948243</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1370.24469435142</v>
+        <v>1370.24469435131</v>
       </c>
       <c r="C29" t="n">
-        <v>-230120658128071250351736266993218617344</v>
+        <v>617.682193621352</v>
       </c>
       <c r="D29" t="n">
-        <v>-351939176039325219071760091599675064320</v>
+        <v>219.299670208399</v>
       </c>
       <c r="E29" t="n">
-        <v>230120658128071250351736266993218617344</v>
+        <v>2122.80719508127</v>
       </c>
       <c r="F29" t="n">
-        <v>351939176039325219071760091599675064320</v>
+        <v>2521.18971849422</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>474.244694351418</v>
+        <v>474.244694351312</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-6112656867963662553811534759424482607104</v>
+        <v>607.639968049011</v>
       </c>
       <c r="D30" t="n">
-        <v>-9348501951202395568714939630735560015872</v>
+        <v>198.59933535293</v>
       </c>
       <c r="E30" t="n">
-        <v>6112656867963662553811534759424482607104</v>
+        <v>2153.03226490356</v>
       </c>
       <c r="F30" t="n">
-        <v>9348501951202395568714939630735560015872</v>
+        <v>2562.07289759964</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-129593787901010224353911501204439101865984</v>
+        <v>593.254246430589</v>
       </c>
       <c r="D31" t="n">
-        <v>-198196595232720592067042797725529359253504</v>
+        <v>176.562850408143</v>
       </c>
       <c r="E31" t="n">
-        <v>129593787901010224353911501204439101865984</v>
+        <v>2167.55181519344</v>
       </c>
       <c r="F31" t="n">
-        <v>198196595232720592067042797725529359253504</v>
+        <v>2584.24321121588</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-1956899833525078737108237446099809035354112</v>
+        <v>620.360645556734</v>
       </c>
       <c r="D32" t="n">
-        <v>-2992820030173103971886600631511731522240512</v>
+        <v>165.827100504612</v>
       </c>
       <c r="E32" t="n">
-        <v>1956899833525078737108237446099809035354112</v>
+        <v>2337.62925663735</v>
       </c>
       <c r="F32" t="n">
-        <v>2992820030173103971886600631511731522240512</v>
+        <v>2792.16280168948</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-50917519158963655847023073580724272874127360</v>
+        <v>630.165613767688</v>
       </c>
       <c r="D33" t="n">
-        <v>-77871625626931358614920422664119019068456960</v>
+        <v>148.613310122436</v>
       </c>
       <c r="E33" t="n">
-        <v>50917519158963655847023073580724272874127360</v>
+        <v>2449.51352470951</v>
       </c>
       <c r="F33" t="n">
-        <v>77871625626931358614920422664119019068456960</v>
+        <v>2931.06582835476</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>423.839569238597</v>
+        <v>423.839569238598</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-1443012415870121261411736994083973352640217088</v>
+        <v>561.605282194403</v>
       </c>
       <c r="D34" t="n">
-        <v>-2206897046040979112149907527694226589608837120</v>
+        <v>114.067598578117</v>
       </c>
       <c r="E34" t="n">
-        <v>1443012415870121261411736994083973352640217088</v>
+        <v>2252.44289960689</v>
       </c>
       <c r="F34" t="n">
-        <v>2206897046040979112149907527694226589608837120</v>
+        <v>2699.98058322317</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-12435070938008994781618332373288085985555382272</v>
+        <v>523.481125015716</v>
       </c>
       <c r="D35" t="n">
-        <v>-19017799859923097238542297475063669824962953216</v>
+        <v>88.4959272551393</v>
       </c>
       <c r="E35" t="n">
-        <v>12435070938008994781618332373288085985555382272</v>
+        <v>2166.8943219741</v>
       </c>
       <c r="F35" t="n">
-        <v>19017799859923097238542297475063669824962953216</v>
+        <v>2601.87951973468</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>593.187723494909</v>
+        <v>593.187723494908</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-299447535861228584363952649845816258437553586176</v>
+        <v>496.900260796152</v>
       </c>
       <c r="D36" t="n">
-        <v>-457965485998892173675567228415548876878080114688</v>
+        <v>66.3684677382885</v>
       </c>
       <c r="E36" t="n">
-        <v>299447535861228584363952649845816258437553586176</v>
+        <v>2123.48809427662</v>
       </c>
       <c r="F36" t="n">
-        <v>457965485998892173675567228415548876878080114688</v>
+        <v>2554.01988733448</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1262.09143914802</v>
+        <v>1262.09143914791</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.66333954842</v>
+        <v>1104.66333954832</v>
       </c>
       <c r="D2" t="n">
-        <v>1021.32593765321</v>
+        <v>1021.32593765312</v>
       </c>
       <c r="E2" t="n">
-        <v>1419.51953874763</v>
+        <v>1419.5195387475</v>
       </c>
       <c r="F2" t="n">
-        <v>1502.85694064284</v>
+        <v>1502.8569406427</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>11.091439148023</v>
+        <v>11.0914391479077</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>1015.39410903967</v>
+        <v>-2085.76196646708</v>
       </c>
       <c r="D3" t="n">
-        <v>914.322029799297</v>
+        <v>-3828.48690730959</v>
       </c>
       <c r="E3" t="n">
-        <v>1397.2535141937</v>
+        <v>4498.40958970044</v>
       </c>
       <c r="F3" t="n">
-        <v>1498.32559343407</v>
+        <v>6241.13453054295</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-88.6761883833153</v>
+        <v>-88.6761883833199</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>1246.22549865832</v>
+        <v>-101662.048490894</v>
       </c>
       <c r="D4" t="n">
-        <v>1095.38288521726</v>
+        <v>-156289.240686281</v>
       </c>
       <c r="E4" t="n">
-        <v>1816.12245806976</v>
+        <v>104724.396447622</v>
       </c>
       <c r="F4" t="n">
-        <v>1966.96507151083</v>
+        <v>159351.588643009</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>2.17397836404211</v>
+        <v>2.17397836403666</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1410.96982079312</v>
+        <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>1113.98254915324</v>
+        <v>-2369859.57232295</v>
       </c>
       <c r="D5" t="n">
-        <v>956.766984223197</v>
+        <v>-3625134.37190136</v>
       </c>
       <c r="E5" t="n">
-        <v>1707.95709243301</v>
+        <v>2372681.51196454</v>
       </c>
       <c r="F5" t="n">
-        <v>1865.17265736305</v>
+        <v>3627956.31154295</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>223.969820793123</v>
+        <v>223.969820793228</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>1090.09718659143</v>
+        <v>-58446374.4206179</v>
       </c>
       <c r="D6" t="n">
-        <v>915.271146285944</v>
+        <v>-89386768.0047107</v>
       </c>
       <c r="E6" t="n">
-        <v>1750.60568961444</v>
+        <v>58449215.1234941</v>
       </c>
       <c r="F6" t="n">
-        <v>1925.43172991992</v>
+        <v>89389608.7075869</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>320.351438102931</v>
+        <v>320.351438102927</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1419.43451361273</v>
+        <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>1060.59127593553</v>
+        <v>-898280781.86761</v>
       </c>
       <c r="D7" t="n">
-        <v>870.631140535669</v>
+        <v>-1373802655.12674</v>
       </c>
       <c r="E7" t="n">
-        <v>1778.27775128993</v>
+        <v>898283620.736637</v>
       </c>
       <c r="F7" t="n">
-        <v>1968.23788668979</v>
+        <v>1373805493.99576</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>170.434513612729</v>
+        <v>170.434513612725</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1519.78312714684</v>
+        <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>1106.78632925253</v>
+        <v>-25868003501.324</v>
       </c>
       <c r="D8" t="n">
-        <v>888.159030726473</v>
+        <v>-39561698185.7811</v>
       </c>
       <c r="E8" t="n">
-        <v>1932.77992504115</v>
+        <v>25868006540.8902</v>
       </c>
       <c r="F8" t="n">
-        <v>2151.4072235672</v>
+        <v>39561701225.3474</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>118.783127146839</v>
+        <v>118.783127146834</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1581.25789100462</v>
+        <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>1123.32564849238</v>
+        <v>-573283702253.954</v>
       </c>
       <c r="D9" t="n">
-        <v>880.910962473305</v>
+        <v>-876761763337.08</v>
       </c>
       <c r="E9" t="n">
-        <v>2039.19013351686</v>
+        <v>573283705416.47</v>
       </c>
       <c r="F9" t="n">
-        <v>2281.60481953593</v>
+        <v>876761766499.596</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1514</v>
       </c>
       <c r="I9" t="n">
-        <v>67.2578910046186</v>
+        <v>67.2578910046141</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>1001.29055308475</v>
+        <v>-8176030420115.68</v>
       </c>
       <c r="D10" t="n">
-        <v>766.96853754301</v>
+        <v>-12504159482728.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1886.58020124228</v>
+        <v>8176030423003.55</v>
       </c>
       <c r="F10" t="n">
-        <v>2120.90221678402</v>
+        <v>12504159485616.5</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>108.935377163515</v>
+        <v>108.935377163511</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>934.335545489992</v>
+        <v>-91678647558494.1</v>
       </c>
       <c r="D11" t="n">
-        <v>698.624299429003</v>
+        <v>-140210391995087</v>
       </c>
       <c r="E11" t="n">
-        <v>1824.87383148783</v>
+        <v>91678647561253.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2060.58507754882</v>
+        <v>140210391997846</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>198.604688488911</v>
+        <v>198.604688488908</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>888.590428569904</v>
+        <v>-1375884853182400</v>
       </c>
       <c r="D12" t="n">
-        <v>648.100487540683</v>
+        <v>-2104234298185751</v>
       </c>
       <c r="E12" t="n">
-        <v>1797.18305392334</v>
+        <v>1375884853185086</v>
       </c>
       <c r="F12" t="n">
-        <v>2037.67299495256</v>
+        <v>2104234298188437</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>99.8867412466223</v>
+        <v>99.8867412466191</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1261.01354591643</v>
+        <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>815.521949336314</v>
+        <v>-17829888065133072</v>
       </c>
       <c r="D13" t="n">
-        <v>579.692943462775</v>
+        <v>-27268460665639936</v>
       </c>
       <c r="E13" t="n">
-        <v>1706.50514249654</v>
+        <v>17829888065135596</v>
       </c>
       <c r="F13" t="n">
-        <v>1942.33414837008</v>
+        <v>27268460665642456</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>65.0135459164269</v>
+        <v>65.0135459164242</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1239.50233693761</v>
+        <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>783.649612563886</v>
+        <v>-318014816111008832</v>
       </c>
       <c r="D14" t="n">
-        <v>542.335756951199</v>
+        <v>-486361690692354816</v>
       </c>
       <c r="E14" t="n">
-        <v>1695.35506131133</v>
+        <v>318014816111011264</v>
       </c>
       <c r="F14" t="n">
-        <v>1936.66891692401</v>
+        <v>486361690692357248</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>279.502336937606</v>
+        <v>279.502336937495</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>732.700964198295</v>
+        <v>-6263611531650603008</v>
       </c>
       <c r="D15" t="n">
-        <v>493.137693812611</v>
+        <v>-9579367186811570176</v>
       </c>
       <c r="E15" t="n">
-        <v>1637.79254452155</v>
+        <v>6263611531650605056</v>
       </c>
       <c r="F15" t="n">
-        <v>1877.35581490723</v>
+        <v>9579367186811574272</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>440.246754359923</v>
+        <v>440.24675435992</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>909.858994888088</v>
+        <v>-178021557875480821760</v>
       </c>
       <c r="D16" t="n">
-        <v>594.779180597679</v>
+        <v>-272260478070878011392</v>
       </c>
       <c r="E16" t="n">
-        <v>2100.25886956398</v>
+        <v>178021557875480821760</v>
       </c>
       <c r="F16" t="n">
-        <v>2415.33868385439</v>
+        <v>272260478070878011392</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>377.058932226032</v>
+        <v>377.058932226029</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1387.47961530881</v>
+        <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>820.331709635831</v>
+        <v>-2548819842556143075328</v>
       </c>
       <c r="D17" t="n">
-        <v>520.101743897148</v>
+        <v>-3898083564330235199488</v>
       </c>
       <c r="E17" t="n">
-        <v>1954.62752098179</v>
+        <v>2548819842556143075328</v>
       </c>
       <c r="F17" t="n">
-        <v>2254.85748672047</v>
+        <v>3898083564330235199488</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>245.47961530881</v>
+        <v>245.479615308916</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>807.994249179055</v>
+        <v>-83757751486723848667136</v>
       </c>
       <c r="D18" t="n">
-        <v>496.050169721624</v>
+        <v>-128096426826394207518720</v>
       </c>
       <c r="E18" t="n">
-        <v>1986.54703564778</v>
+        <v>83757751486723848667136</v>
       </c>
       <c r="F18" t="n">
-        <v>2298.49111510521</v>
+        <v>128096426826394207518720</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>302.270642413418</v>
+        <v>302.270642413416</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>790.081155726927</v>
+        <v>-1402207234355279433826304</v>
       </c>
       <c r="D19" t="n">
-        <v>468.839446156544</v>
+        <v>-2144490906247671303897088</v>
       </c>
       <c r="E19" t="n">
-        <v>2003.76122493246</v>
+        <v>1402207234355279433826304</v>
       </c>
       <c r="F19" t="n">
-        <v>2325.00293450284</v>
+        <v>2144490906247671303897088</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>307.921190329694</v>
+        <v>307.921190329692</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1496.25653967068</v>
+        <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>827.696743189856</v>
+        <v>-43309742650824894405672960</v>
       </c>
       <c r="D20" t="n">
-        <v>473.782565276212</v>
+        <v>-66236535507053593061490688</v>
       </c>
       <c r="E20" t="n">
-        <v>2164.8163361515</v>
+        <v>43309742650824894405672960</v>
       </c>
       <c r="F20" t="n">
-        <v>2518.73051406514</v>
+        <v>66236535507053593061490688</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>458.256539670676</v>
+        <v>458.256539670674</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>842.56291806032</v>
+        <v>-1015680495271874447682830336</v>
       </c>
       <c r="D21" t="n">
-        <v>464.168054462472</v>
+        <v>-1553349271347285161181970432</v>
       </c>
       <c r="E21" t="n">
-        <v>2272.172743175</v>
+        <v>1015680495271874447682830336</v>
       </c>
       <c r="F21" t="n">
-        <v>2650.56760677285</v>
+        <v>1553349271347285161181970432</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>500.367830617659</v>
+        <v>500.367830617657</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>752.700748915843</v>
+        <v>-15623879267128900543930433536</v>
       </c>
       <c r="D22" t="n">
-        <v>398.053702503257</v>
+        <v>-23894661350877163061656944640</v>
       </c>
       <c r="E22" t="n">
-        <v>2092.58918497605</v>
+        <v>15623879267128900543930433536</v>
       </c>
       <c r="F22" t="n">
-        <v>2447.23623138863</v>
+        <v>23894661350877163061656944640</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>317.644966945944</v>
+        <v>317.644966945943</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>703.490255162218</v>
+        <v>-176666393525973904220871458816</v>
       </c>
       <c r="D23" t="n">
-        <v>356.085744886771</v>
+        <v>-270187933048440713238374514688</v>
       </c>
       <c r="E23" t="n">
-        <v>2016.01573834839</v>
+        <v>176666393525973904220871458816</v>
       </c>
       <c r="F23" t="n">
-        <v>2363.42024862384</v>
+        <v>270187933048440713238374514688</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>419.752996755305</v>
+        <v>419.752996755304</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>669.753509593469</v>
+        <v>-2649051664280116434655365824512</v>
       </c>
       <c r="D24" t="n">
-        <v>323.400627154971</v>
+        <v>-4051374907390898564121648693248</v>
       </c>
       <c r="E24" t="n">
-        <v>1978.30584823489</v>
+        <v>2649051664280116434655365824512</v>
       </c>
       <c r="F24" t="n">
-        <v>2324.65873067339</v>
+        <v>4051374907390898564121648693248</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>615.03636894643</v>
+        <v>-25875194271928599515489552564224</v>
       </c>
       <c r="D25" t="n">
-        <v>282.223934196481</v>
+        <v>-39572694715882019103378518310912</v>
       </c>
       <c r="E25" t="n">
-        <v>1872.43167847824</v>
+        <v>25875194271928599515489552564224</v>
       </c>
       <c r="F25" t="n">
-        <v>2205.24411322819</v>
+        <v>39572694715882019103378518310912</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>175.734023712336</v>
+        <v>175.734023712335</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1222.92853829376</v>
+        <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>591.090789940441</v>
+        <v>-551713254738759057082620525412352</v>
       </c>
       <c r="D26" t="n">
-        <v>256.616090055184</v>
+        <v>-843772609822235747778288091660288</v>
       </c>
       <c r="E26" t="n">
-        <v>1854.76628664707</v>
+        <v>551713254738759057082620525412352</v>
       </c>
       <c r="F26" t="n">
-        <v>2189.24098653233</v>
+        <v>843772609822235747778288091660288</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>266.928538293757</v>
+        <v>266.928538293649</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>552.533101479337</v>
+        <v>-9934485321883958628191515107655680</v>
       </c>
       <c r="D27" t="n">
-        <v>225.781080668829</v>
+        <v>-15193484179124683180410453987688448</v>
       </c>
       <c r="E27" t="n">
-        <v>1787.03162211263</v>
+        <v>9934485321883958628191515107655680</v>
       </c>
       <c r="F27" t="n">
-        <v>2113.78364292313</v>
+        <v>15193484179124683180410453987688448</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>339.782361795981</v>
+        <v>339.78236179598</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>685.725117915001</v>
+        <v>-356222338424356075909495316337917952</v>
       </c>
       <c r="D28" t="n">
-        <v>262.139107481331</v>
+        <v>-544795053567493854704852930532474880</v>
       </c>
       <c r="E28" t="n">
-        <v>2286.07115998148</v>
+        <v>356222338424356075909495316337917952</v>
       </c>
       <c r="F28" t="n">
-        <v>2709.65717041515</v>
+        <v>544795053567493854704852930532474880</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>435.898138948243</v>
+        <v>435.898138948242</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1370.24469435131</v>
+        <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>617.682193621352</v>
+        <v>-4054685330858662745201679459034333184</v>
       </c>
       <c r="D29" t="n">
-        <v>219.299670208399</v>
+        <v>-6201106089514800914630475060938276864</v>
       </c>
       <c r="E29" t="n">
-        <v>2122.80719508127</v>
+        <v>4054685330858662745201679459034333184</v>
       </c>
       <c r="F29" t="n">
-        <v>2521.18971849422</v>
+        <v>6201106089514800914630475060938276864</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>474.244694351312</v>
+        <v>474.244694351418</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>607.639968049011</v>
+        <v>-90799971806393349634651280790272344064</v>
       </c>
       <c r="D30" t="n">
-        <v>198.59933535293</v>
+        <v>-138866573396253790940290977935954804736</v>
       </c>
       <c r="E30" t="n">
-        <v>2153.03226490356</v>
+        <v>90799971806393349634651280790272344064</v>
       </c>
       <c r="F30" t="n">
-        <v>2562.07289759964</v>
+        <v>138866573396253790940290977935954804736</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>593.254246430589</v>
+        <v>-1859792984119999249027318965517259112448</v>
       </c>
       <c r="D31" t="n">
-        <v>176.562850408143</v>
+        <v>-2844307919850621455893936915087192227840</v>
       </c>
       <c r="E31" t="n">
-        <v>2167.55181519344</v>
+        <v>1859792984119999249027318965517259112448</v>
       </c>
       <c r="F31" t="n">
-        <v>2584.24321121588</v>
+        <v>2844307919850621455893936915087192227840</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>620.360645556734</v>
+        <v>-67402797880890684377045713237112543772672</v>
       </c>
       <c r="D32" t="n">
-        <v>165.827100504612</v>
+        <v>-103083683759255476908396578322101972238336</v>
       </c>
       <c r="E32" t="n">
-        <v>2337.62925663735</v>
+        <v>67402797880890684377045713237112543772672</v>
       </c>
       <c r="F32" t="n">
-        <v>2792.16280168948</v>
+        <v>103083683759255476908396578322101972238336</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>630.165613767688</v>
+        <v>-1056488750428217322413358244936657387126784</v>
       </c>
       <c r="D33" t="n">
-        <v>148.613310122436</v>
+        <v>-1615760111869620239821066697976850879086592</v>
       </c>
       <c r="E33" t="n">
-        <v>2449.51352470951</v>
+        <v>1056488750428217322413358244936657387126784</v>
       </c>
       <c r="F33" t="n">
-        <v>2931.06582835476</v>
+        <v>1615760111869620239821066697976850879086592</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>423.839569238598</v>
+        <v>423.839569238597</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>561.605282194403</v>
+        <v>-15606718620433766957015180534922538561568768</v>
       </c>
       <c r="D34" t="n">
-        <v>114.067598578117</v>
+        <v>-23868416406562665716609016847798358425731072</v>
       </c>
       <c r="E34" t="n">
-        <v>2252.44289960689</v>
+        <v>15606718620433766957015180534922538561568768</v>
       </c>
       <c r="F34" t="n">
-        <v>2699.98058322317</v>
+        <v>23868416406562665716609016847798358425731072</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>523.481125015716</v>
+        <v>-139796270946431969547663024360305793553137664</v>
       </c>
       <c r="D35" t="n">
-        <v>88.4959272551393</v>
+        <v>-213799946560538214038790985958296030514511872</v>
       </c>
       <c r="E35" t="n">
-        <v>2166.8943219741</v>
+        <v>139796270946431969547663024360305793553137664</v>
       </c>
       <c r="F35" t="n">
-        <v>2601.87951973468</v>
+        <v>213799946560538214038790985958296030514511872</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>593.187723494908</v>
+        <v>593.187723494909</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>496.900260796152</v>
+        <v>-3104191510611714913031396727536328753387929600</v>
       </c>
       <c r="D36" t="n">
-        <v>66.3684677382885</v>
+        <v>-4747451234495180403901598634304720274066505728</v>
       </c>
       <c r="E36" t="n">
-        <v>2123.48809427662</v>
+        <v>3104191510611714913031396727536328753387929600</v>
       </c>
       <c r="F36" t="n">
-        <v>2554.01988733448</v>
+        <v>4747451234495180403901598634304720274066505728</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-2085.76196646708</v>
+        <v>-2087.84328712021</v>
       </c>
       <c r="D3" t="n">
-        <v>-3828.48690730959</v>
+        <v>-3831.6700125627</v>
       </c>
       <c r="E3" t="n">
-        <v>4498.40958970044</v>
+        <v>4500.49091035357</v>
       </c>
       <c r="F3" t="n">
-        <v>6241.13453054295</v>
+        <v>6244.31763579606</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-101662.048490894</v>
+        <v>-112809.966140609</v>
       </c>
       <c r="D4" t="n">
-        <v>-156289.240686281</v>
+        <v>-173338.509466016</v>
       </c>
       <c r="E4" t="n">
-        <v>104724.396447622</v>
+        <v>115872.314097337</v>
       </c>
       <c r="F4" t="n">
-        <v>159351.588643009</v>
+        <v>176400.857422744</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-2369859.57232295</v>
+        <v>-2841923.84007557</v>
       </c>
       <c r="D5" t="n">
-        <v>-3625134.37190136</v>
+        <v>-4347094.36793962</v>
       </c>
       <c r="E5" t="n">
-        <v>2372681.51196454</v>
+        <v>2844745.77971716</v>
       </c>
       <c r="F5" t="n">
-        <v>3627956.31154295</v>
+        <v>4349916.30758121</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-58446374.4206179</v>
+        <v>-70937241.6417225</v>
       </c>
       <c r="D6" t="n">
-        <v>-89386768.0047107</v>
+        <v>-108489900.915819</v>
       </c>
       <c r="E6" t="n">
-        <v>58449215.1234941</v>
+        <v>70940082.3445987</v>
       </c>
       <c r="F6" t="n">
-        <v>89389608.7075869</v>
+        <v>108492741.618695</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-898280781.86761</v>
+        <v>-1335658368.58279</v>
       </c>
       <c r="D7" t="n">
-        <v>-1373802655.12674</v>
+        <v>-2042713950.35231</v>
       </c>
       <c r="E7" t="n">
-        <v>898283620.736637</v>
+        <v>1335661207.45182</v>
       </c>
       <c r="F7" t="n">
-        <v>1373805493.99576</v>
+        <v>2042716789.22133</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-25868003501.324</v>
+        <v>-28359760889.9271</v>
       </c>
       <c r="D8" t="n">
-        <v>-39561698185.7811</v>
+        <v>-43372512257.7051</v>
       </c>
       <c r="E8" t="n">
-        <v>25868006540.8902</v>
+        <v>28359763929.4933</v>
       </c>
       <c r="F8" t="n">
-        <v>39561701225.3474</v>
+        <v>43372515297.2714</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-573283702253.954</v>
+        <v>-479286043434.69</v>
       </c>
       <c r="D9" t="n">
-        <v>-876761763337.08</v>
+        <v>-733004749674.853</v>
       </c>
       <c r="E9" t="n">
-        <v>573283705416.47</v>
+        <v>479286046597.205</v>
       </c>
       <c r="F9" t="n">
-        <v>876761766499.596</v>
+        <v>733004752837.369</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-8176030420115.68</v>
+        <v>-4567498930326.47</v>
       </c>
       <c r="D10" t="n">
-        <v>-12504159482728.6</v>
+        <v>-6985386811213.04</v>
       </c>
       <c r="E10" t="n">
-        <v>8176030423003.55</v>
+        <v>4567498933214.34</v>
       </c>
       <c r="F10" t="n">
-        <v>12504159485616.5</v>
+        <v>6985386814100.92</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-91678647558494.1</v>
+        <v>-52743764918132.9</v>
       </c>
       <c r="D11" t="n">
-        <v>-140210391995087</v>
+        <v>-80664627494402.5</v>
       </c>
       <c r="E11" t="n">
-        <v>91678647561253.3</v>
+        <v>52743764920892.1</v>
       </c>
       <c r="F11" t="n">
-        <v>140210391997846</v>
+        <v>80664627497161.8</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-1375884853182400</v>
+        <v>-316416704467099</v>
       </c>
       <c r="D12" t="n">
-        <v>-2104234298185751</v>
+        <v>-483917589847223</v>
       </c>
       <c r="E12" t="n">
-        <v>1375884853185086</v>
+        <v>316416704469785</v>
       </c>
       <c r="F12" t="n">
-        <v>2104234298188437</v>
+        <v>483917589849909</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-17829888065133072</v>
+        <v>-3436811421124054</v>
       </c>
       <c r="D13" t="n">
-        <v>-27268460665639936</v>
+        <v>-5256149489542715</v>
       </c>
       <c r="E13" t="n">
-        <v>17829888065135596</v>
+        <v>3436811421126576</v>
       </c>
       <c r="F13" t="n">
-        <v>27268460665642456</v>
+        <v>5256149489545237</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-318014816111008832</v>
+        <v>-62364395248047448</v>
       </c>
       <c r="D14" t="n">
-        <v>-486361690692354816</v>
+        <v>-95378111884129856</v>
       </c>
       <c r="E14" t="n">
-        <v>318014816111011264</v>
+        <v>62364395248049928</v>
       </c>
       <c r="F14" t="n">
-        <v>486361690692357248</v>
+        <v>95378111884132320</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-6263611531650603008</v>
+        <v>-1946613225102336512</v>
       </c>
       <c r="D15" t="n">
-        <v>-9579367186811570176</v>
+        <v>-2977088020183266304</v>
       </c>
       <c r="E15" t="n">
-        <v>6263611531650605056</v>
+        <v>1946613225102339072</v>
       </c>
       <c r="F15" t="n">
-        <v>9579367186811574272</v>
+        <v>2977088020183268352</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-178021557875480821760</v>
+        <v>-63635450936756658176</v>
       </c>
       <c r="D16" t="n">
-        <v>-272260478070878011392</v>
+        <v>-97322023810260828160</v>
       </c>
       <c r="E16" t="n">
-        <v>178021557875480821760</v>
+        <v>63635450936756658176</v>
       </c>
       <c r="F16" t="n">
-        <v>272260478070878011392</v>
+        <v>97322023810260828160</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-2548819842556143075328</v>
+        <v>-1476569324684113084416</v>
       </c>
       <c r="D17" t="n">
-        <v>-3898083564330235199488</v>
+        <v>-2258217909341528260608</v>
       </c>
       <c r="E17" t="n">
-        <v>2548819842556143075328</v>
+        <v>1476569324684113084416</v>
       </c>
       <c r="F17" t="n">
-        <v>3898083564330235199488</v>
+        <v>2258217909341528260608</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-83757751486723848667136</v>
+        <v>-61434011306362077708288</v>
       </c>
       <c r="D18" t="n">
-        <v>-128096426826394207518720</v>
+        <v>-93955212434333876879360</v>
       </c>
       <c r="E18" t="n">
-        <v>83757751486723848667136</v>
+        <v>61434011306362077708288</v>
       </c>
       <c r="F18" t="n">
-        <v>128096426826394207518720</v>
+        <v>93955212434333876879360</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-1402207234355279433826304</v>
+        <v>-1197460319098177362853888</v>
       </c>
       <c r="D19" t="n">
-        <v>-2144490906247671303897088</v>
+        <v>-1831357521186366938939392</v>
       </c>
       <c r="E19" t="n">
-        <v>1402207234355279433826304</v>
+        <v>1197460319098177362853888</v>
       </c>
       <c r="F19" t="n">
-        <v>2144490906247671303897088</v>
+        <v>1831357521186366938939392</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-43309742650824894405672960</v>
+        <v>-11575104154983351747346432</v>
       </c>
       <c r="D20" t="n">
-        <v>-66236535507053593061490688</v>
+        <v>-17702594160872844496470016</v>
       </c>
       <c r="E20" t="n">
-        <v>43309742650824894405672960</v>
+        <v>11575104154983351747346432</v>
       </c>
       <c r="F20" t="n">
-        <v>66236535507053593061490688</v>
+        <v>17702594160872844496470016</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-1015680495271874447682830336</v>
+        <v>-321141888252219518640717824</v>
       </c>
       <c r="D21" t="n">
-        <v>-1553349271347285161181970432</v>
+        <v>-491144134831640106831446016</v>
       </c>
       <c r="E21" t="n">
-        <v>1015680495271874447682830336</v>
+        <v>321141888252219518640717824</v>
       </c>
       <c r="F21" t="n">
-        <v>1553349271347285161181970432</v>
+        <v>491144134831640106831446016</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-15623879267128900543930433536</v>
+        <v>-3079430811311582308198252544</v>
       </c>
       <c r="D22" t="n">
-        <v>-23894661350877163061656944640</v>
+        <v>-4709583012751279131025473536</v>
       </c>
       <c r="E22" t="n">
-        <v>15623879267128900543930433536</v>
+        <v>3079430811311582308198252544</v>
       </c>
       <c r="F22" t="n">
-        <v>23894661350877163061656944640</v>
+        <v>4709583012751279131025473536</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-176666393525973904220871458816</v>
+        <v>-28007378398810455923247546368</v>
       </c>
       <c r="D23" t="n">
-        <v>-270187933048440713238374514688</v>
+        <v>-42833588939299811904643399680</v>
       </c>
       <c r="E23" t="n">
-        <v>176666393525973904220871458816</v>
+        <v>28007378398810455923247546368</v>
       </c>
       <c r="F23" t="n">
-        <v>270187933048440713238374514688</v>
+        <v>42833588939299811904643399680</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-2649051664280116434655365824512</v>
+        <v>-106361712380449157854030462976</v>
       </c>
       <c r="D24" t="n">
-        <v>-4051374907390898564121648693248</v>
+        <v>-162666201816935985931932925952</v>
       </c>
       <c r="E24" t="n">
-        <v>2649051664280116434655365824512</v>
+        <v>106361712380449157854030462976</v>
       </c>
       <c r="F24" t="n">
-        <v>4051374907390898564121648693248</v>
+        <v>162666201816935985931932925952</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-25875194271928599515489552564224</v>
+        <v>-1481716468842720116791205429248</v>
       </c>
       <c r="D25" t="n">
-        <v>-39572694715882019103378518310912</v>
+        <v>-2266089787028961082374067585024</v>
       </c>
       <c r="E25" t="n">
-        <v>25875194271928599515489552564224</v>
+        <v>1481716468842720116791205429248</v>
       </c>
       <c r="F25" t="n">
-        <v>39572694715882019103378518310912</v>
+        <v>2266089787028961082374067585024</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-551713254738759057082620525412352</v>
+        <v>-21340116469189425327468414238720</v>
       </c>
       <c r="D26" t="n">
-        <v>-843772609822235747778288091660288</v>
+        <v>-32636891741244332786295284695040</v>
       </c>
       <c r="E26" t="n">
-        <v>551713254738759057082620525412352</v>
+        <v>21340116469189425327468414238720</v>
       </c>
       <c r="F26" t="n">
-        <v>843772609822235747778288091660288</v>
+        <v>32636891741244332786295284695040</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-9934485321883958628191515107655680</v>
+        <v>-792400610057732090400904002404352</v>
       </c>
       <c r="D27" t="n">
-        <v>-15193484179124683180410453987688448</v>
+        <v>-1211872154657105468530466754658304</v>
       </c>
       <c r="E27" t="n">
-        <v>9934485321883958628191515107655680</v>
+        <v>792400610057732090400904002404352</v>
       </c>
       <c r="F27" t="n">
-        <v>15193484179124683180410453987688448</v>
+        <v>1211872154657105468530466754658304</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-356222338424356075909495316337917952</v>
+        <v>-25648582737708617461463131474624512</v>
       </c>
       <c r="D28" t="n">
-        <v>-544795053567493854704852930532474880</v>
+        <v>-39226122281737481801777750804004864</v>
       </c>
       <c r="E28" t="n">
-        <v>356222338424356075909495316337917952</v>
+        <v>25648582737708617461463131474624512</v>
       </c>
       <c r="F28" t="n">
-        <v>544795053567493854704852930532474880</v>
+        <v>39226122281737481801777750804004864</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-4054685330858662745201679459034333184</v>
+        <v>-399242872175965623607603309506985984</v>
       </c>
       <c r="D29" t="n">
-        <v>-6201106089514800914630475060938276864</v>
+        <v>-610589282232036882618344428389007360</v>
       </c>
       <c r="E29" t="n">
-        <v>4054685330858662745201679459034333184</v>
+        <v>399242872175965623607603309506985984</v>
       </c>
       <c r="F29" t="n">
-        <v>6201106089514800914630475060938276864</v>
+        <v>610589282232036882618344428389007360</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-90799971806393349634651280790272344064</v>
+        <v>-21872160494451848246824012468323352576</v>
       </c>
       <c r="D30" t="n">
-        <v>-138866573396253790940290977935954804736</v>
+        <v>-33450582860462727002461347416975081472</v>
       </c>
       <c r="E30" t="n">
-        <v>90799971806393349634651280790272344064</v>
+        <v>21872160494451848246824012468323352576</v>
       </c>
       <c r="F30" t="n">
-        <v>138866573396253790940290977935954804736</v>
+        <v>33450582860462727002461347416975081472</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-1859792984119999249027318965517259112448</v>
+        <v>-715046036718456872980451179916758614016</v>
       </c>
       <c r="D31" t="n">
-        <v>-2844307919850621455893936915087192227840</v>
+        <v>-1093568543736843025697876607156992606208</v>
       </c>
       <c r="E31" t="n">
-        <v>1859792984119999249027318965517259112448</v>
+        <v>715046036718456872980451179916758614016</v>
       </c>
       <c r="F31" t="n">
-        <v>2844307919850621455893936915087192227840</v>
+        <v>1093568543736843025697876607156992606208</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-67402797880890684377045713237112543772672</v>
+        <v>-4309226933887737504489303654614605758464</v>
       </c>
       <c r="D32" t="n">
-        <v>-103083683759255476908396578322101972238336</v>
+        <v>-6590393877784227850449451405558421651456</v>
       </c>
       <c r="E32" t="n">
-        <v>67402797880890684377045713237112543772672</v>
+        <v>4309226933887737504489303654614605758464</v>
       </c>
       <c r="F32" t="n">
-        <v>103083683759255476908396578322101972238336</v>
+        <v>6590393877784227850449451405558421651456</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-1056488750428217322413358244936657387126784</v>
+        <v>-172195514546911448846719015518572904448000</v>
       </c>
       <c r="D33" t="n">
-        <v>-1615760111869620239821066697976850879086592</v>
+        <v>-263350313701866992425108260761083247067136</v>
       </c>
       <c r="E33" t="n">
-        <v>1056488750428217322413358244936657387126784</v>
+        <v>172195514546911448846719015518572904448000</v>
       </c>
       <c r="F33" t="n">
-        <v>1615760111869620239821066697976850879086592</v>
+        <v>263350313701866992425108260761083247067136</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-15606718620433766957015180534922538561568768</v>
+        <v>-2007674245609057698818034336402134615982080</v>
       </c>
       <c r="D34" t="n">
-        <v>-23868416406562665716609016847798358425731072</v>
+        <v>-3070472792415647559755006574972270633025536</v>
       </c>
       <c r="E34" t="n">
-        <v>15606718620433766957015180534922538561568768</v>
+        <v>2007674245609057698818034336402134615982080</v>
       </c>
       <c r="F34" t="n">
-        <v>23868416406562665716609016847798358425731072</v>
+        <v>3070472792415647559755006574972270633025536</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-139796270946431969547663024360305793553137664</v>
+        <v>-20248191499708006607105364983280331592302592</v>
       </c>
       <c r="D35" t="n">
-        <v>-213799946560538214038790985958296030514511872</v>
+        <v>-30966936609088478018130209770310814620712960</v>
       </c>
       <c r="E35" t="n">
-        <v>139796270946431969547663024360305793553137664</v>
+        <v>20248191499708006607105364983280331592302592</v>
       </c>
       <c r="F35" t="n">
-        <v>213799946560538214038790985958296030514511872</v>
+        <v>30966936609088478018130209770310814620712960</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-3104191510611714913031396727536328753387929600</v>
+        <v>-37956623290109959487179724231669678300200960</v>
       </c>
       <c r="D36" t="n">
-        <v>-4747451234495180403901598634304720274066505728</v>
+        <v>-58049645931926145236051973040750856316649472</v>
       </c>
       <c r="E36" t="n">
-        <v>3104191510611714913031396727536328753387929600</v>
+        <v>37956623290109959487179724231669678300200960</v>
       </c>
       <c r="F36" t="n">
-        <v>4747451234495180403901598634304720274066505728</v>
+        <v>58049645931926145236051973040750856316649472</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-2087.84328712021</v>
+        <v>-1318.84858082433</v>
       </c>
       <c r="D3" t="n">
-        <v>-3831.6700125627</v>
+        <v>-2655.59409867514</v>
       </c>
       <c r="E3" t="n">
-        <v>4500.49091035357</v>
+        <v>3731.49620405769</v>
       </c>
       <c r="F3" t="n">
-        <v>6244.31763579606</v>
+        <v>5068.2417219085</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-112809.966140609</v>
+        <v>-71599.9713099353</v>
       </c>
       <c r="D4" t="n">
-        <v>-173338.509466016</v>
+        <v>-110313.261132074</v>
       </c>
       <c r="E4" t="n">
-        <v>115872.314097337</v>
+        <v>74662.3192666634</v>
       </c>
       <c r="F4" t="n">
-        <v>176400.857422744</v>
+        <v>113375.609088802</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-2841923.84007557</v>
+        <v>-1391101.76457733</v>
       </c>
       <c r="D5" t="n">
-        <v>-4347094.36793962</v>
+        <v>-2128253.47819063</v>
       </c>
       <c r="E5" t="n">
-        <v>2844745.77971716</v>
+        <v>1393923.70421892</v>
       </c>
       <c r="F5" t="n">
-        <v>4349916.30758121</v>
+        <v>2131075.41783222</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-70937241.6417225</v>
+        <v>-22786403.1884488</v>
       </c>
       <c r="D6" t="n">
-        <v>-108489900.915819</v>
+        <v>-34849548.2908206</v>
       </c>
       <c r="E6" t="n">
-        <v>70940082.3445987</v>
+        <v>22789243.891325</v>
       </c>
       <c r="F6" t="n">
-        <v>108492741.618695</v>
+        <v>34852388.9936968</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-1335658368.58279</v>
+        <v>-529172228.400602</v>
       </c>
       <c r="D7" t="n">
-        <v>-2042713950.35231</v>
+        <v>-809299836.331783</v>
       </c>
       <c r="E7" t="n">
-        <v>1335661207.45182</v>
+        <v>529175067.269629</v>
       </c>
       <c r="F7" t="n">
-        <v>2042716789.22133</v>
+        <v>809302675.20081</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-28359760889.9271</v>
+        <v>-9306953755.882</v>
       </c>
       <c r="D8" t="n">
-        <v>-43372512257.7051</v>
+        <v>-14233758273.0013</v>
       </c>
       <c r="E8" t="n">
-        <v>28359763929.4933</v>
+        <v>9306956795.44825</v>
       </c>
       <c r="F8" t="n">
-        <v>43372515297.2714</v>
+        <v>14233761312.5676</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-479286043434.69</v>
+        <v>-122522303404.407</v>
       </c>
       <c r="D9" t="n">
-        <v>-733004749674.853</v>
+        <v>-187381693803.498</v>
       </c>
       <c r="E9" t="n">
-        <v>479286046597.205</v>
+        <v>122522306566.923</v>
       </c>
       <c r="F9" t="n">
-        <v>733004752837.369</v>
+        <v>187381696966.014</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-4567498930326.47</v>
+        <v>-2014346193363.26</v>
       </c>
       <c r="D10" t="n">
-        <v>-6985386811213.04</v>
+        <v>-3080676656728.35</v>
       </c>
       <c r="E10" t="n">
-        <v>4567498933214.34</v>
+        <v>2014346196251.13</v>
       </c>
       <c r="F10" t="n">
-        <v>6985386814100.92</v>
+        <v>3080676659616.22</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-52743764918132.9</v>
+        <v>-22814754039145.2</v>
       </c>
       <c r="D11" t="n">
-        <v>-80664627494402.5</v>
+        <v>-34892155287405.8</v>
       </c>
       <c r="E11" t="n">
-        <v>52743764920892.1</v>
+        <v>22814754041904.4</v>
       </c>
       <c r="F11" t="n">
-        <v>80664627497161.8</v>
+        <v>34892155290165</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-316416704467099</v>
+        <v>-285481317528384</v>
       </c>
       <c r="D12" t="n">
-        <v>-483917589847223</v>
+        <v>-436605998275076</v>
       </c>
       <c r="E12" t="n">
-        <v>316416704469785</v>
+        <v>285481317531070</v>
       </c>
       <c r="F12" t="n">
-        <v>483917589849909</v>
+        <v>436605998277762</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-3436811421124054</v>
+        <v>-5065677161127193</v>
       </c>
       <c r="D13" t="n">
-        <v>-5256149489542715</v>
+        <v>-7747284666534725</v>
       </c>
       <c r="E13" t="n">
-        <v>3436811421126576</v>
+        <v>5065677161129715</v>
       </c>
       <c r="F13" t="n">
-        <v>5256149489545237</v>
+        <v>7747284666537247</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-62364395248047448</v>
+        <v>-88256460043680288</v>
       </c>
       <c r="D14" t="n">
-        <v>-95378111884129856</v>
+        <v>-134976607839501280</v>
       </c>
       <c r="E14" t="n">
-        <v>62364395248049928</v>
+        <v>88256460043682752</v>
       </c>
       <c r="F14" t="n">
-        <v>95378111884132320</v>
+        <v>134976607839503744</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-1946613225102336512</v>
+        <v>-1428218010664249088</v>
       </c>
       <c r="D15" t="n">
-        <v>-2977088020183266304</v>
+        <v>-2184270955795536640</v>
       </c>
       <c r="E15" t="n">
-        <v>1946613225102339072</v>
+        <v>1428218010664251648</v>
       </c>
       <c r="F15" t="n">
-        <v>2977088020183268352</v>
+        <v>2184270955795539200</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-63635450936756658176</v>
+        <v>-33299100491210207232</v>
       </c>
       <c r="D16" t="n">
-        <v>-97322023810260828160</v>
+        <v>-50926579495548715008</v>
       </c>
       <c r="E16" t="n">
-        <v>63635450936756658176</v>
+        <v>33299100491210207232</v>
       </c>
       <c r="F16" t="n">
-        <v>97322023810260828160</v>
+        <v>50926579495548715008</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-1476569324684113084416</v>
+        <v>-325500791234036039680</v>
       </c>
       <c r="D17" t="n">
-        <v>-2258217909341528260608</v>
+        <v>-497810501668649959424</v>
       </c>
       <c r="E17" t="n">
-        <v>1476569324684113084416</v>
+        <v>325500791234036039680</v>
       </c>
       <c r="F17" t="n">
-        <v>2258217909341528260608</v>
+        <v>497810501668649959424</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-61434011306362077708288</v>
+        <v>-3451872907720265826304</v>
       </c>
       <c r="D18" t="n">
-        <v>-93955212434333876879360</v>
+        <v>-5279184045525492039680</v>
       </c>
       <c r="E18" t="n">
-        <v>61434011306362077708288</v>
+        <v>3451872907720265826304</v>
       </c>
       <c r="F18" t="n">
-        <v>93955212434333876879360</v>
+        <v>5279184045525492039680</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-1197460319098177362853888</v>
+        <v>-83782956181869373161472</v>
       </c>
       <c r="D19" t="n">
-        <v>-1831357521186366938939392</v>
+        <v>-128134974081186515648512</v>
       </c>
       <c r="E19" t="n">
-        <v>1197460319098177362853888</v>
+        <v>83782956181869373161472</v>
       </c>
       <c r="F19" t="n">
-        <v>1831357521186366938939392</v>
+        <v>128134974081186515648512</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-11575104154983351747346432</v>
+        <v>-1449667192660159054741504</v>
       </c>
       <c r="D20" t="n">
-        <v>-17702594160872844496470016</v>
+        <v>-2217074648865789691559936</v>
       </c>
       <c r="E20" t="n">
-        <v>11575104154983351747346432</v>
+        <v>1449667192660159054741504</v>
       </c>
       <c r="F20" t="n">
-        <v>17702594160872844496470016</v>
+        <v>2217074648865789691559936</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-321141888252219518640717824</v>
+        <v>-15014269584523748098179072</v>
       </c>
       <c r="D21" t="n">
-        <v>-491144134831640106831446016</v>
+        <v>-22962343795613401211731968</v>
       </c>
       <c r="E21" t="n">
-        <v>321141888252219518640717824</v>
+        <v>15014269584523748098179072</v>
       </c>
       <c r="F21" t="n">
-        <v>491144134831640106831446016</v>
+        <v>22962343795613401211731968</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-3079430811311582308198252544</v>
+        <v>-155671956960609258254106624</v>
       </c>
       <c r="D22" t="n">
-        <v>-4709583012751279131025473536</v>
+        <v>-238079713098399656724922368</v>
       </c>
       <c r="E22" t="n">
-        <v>3079430811311582308198252544</v>
+        <v>155671956960609258254106624</v>
       </c>
       <c r="F22" t="n">
-        <v>4709583012751279131025473536</v>
+        <v>238079713098399656724922368</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-28007378398810455923247546368</v>
+        <v>-1861843865186739611370520576</v>
       </c>
       <c r="D23" t="n">
-        <v>-42833588939299811904643399680</v>
+        <v>-2847444471773663211118657536</v>
       </c>
       <c r="E23" t="n">
-        <v>28007378398810455923247546368</v>
+        <v>1861843865186739611370520576</v>
       </c>
       <c r="F23" t="n">
-        <v>42833588939299811904643399680</v>
+        <v>2847444471773663211118657536</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-106361712380449157854030462976</v>
+        <v>-15573841857251603553550598144</v>
       </c>
       <c r="D24" t="n">
-        <v>-162666201816935985931932925952</v>
+        <v>-23818135736242613155109273600</v>
       </c>
       <c r="E24" t="n">
-        <v>106361712380449157854030462976</v>
+        <v>15573841857251603553550598144</v>
       </c>
       <c r="F24" t="n">
-        <v>162666201816935985931932925952</v>
+        <v>23818135736242613155109273600</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-1481716468842720116791205429248</v>
+        <v>-368762995416748619126106226688</v>
       </c>
       <c r="D25" t="n">
-        <v>-2266089787028961082374067585024</v>
+        <v>-563974333362696480718321614848</v>
       </c>
       <c r="E25" t="n">
-        <v>1481716468842720116791205429248</v>
+        <v>368762995416748619126106226688</v>
       </c>
       <c r="F25" t="n">
-        <v>2266089787028961082374067585024</v>
+        <v>563974333362696480718321614848</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-21340116469189425327468414238720</v>
+        <v>-3816967504711699979881710354432</v>
       </c>
       <c r="D26" t="n">
-        <v>-32636891741244332786295284695040</v>
+        <v>-5837548047639828227864926355456</v>
       </c>
       <c r="E26" t="n">
-        <v>21340116469189425327468414238720</v>
+        <v>3816967504711699979881710354432</v>
       </c>
       <c r="F26" t="n">
-        <v>32636891741244332786295284695040</v>
+        <v>5837548047639828227864926355456</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-792400610057732090400904002404352</v>
+        <v>-66469733196415247061249217789952</v>
       </c>
       <c r="D27" t="n">
-        <v>-1211872154657105468530466754658304</v>
+        <v>-101656684467158374142648420139008</v>
       </c>
       <c r="E27" t="n">
-        <v>792400610057732090400904002404352</v>
+        <v>66469733196415247061249217789952</v>
       </c>
       <c r="F27" t="n">
-        <v>1211872154657105468530466754658304</v>
+        <v>101656684467158374142648420139008</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-25648582737708617461463131474624512</v>
+        <v>-1524671957521932488543547252801536</v>
       </c>
       <c r="D28" t="n">
-        <v>-39226122281737481801777750804004864</v>
+        <v>-2331784537839707461616119064821760</v>
       </c>
       <c r="E28" t="n">
-        <v>25648582737708617461463131474624512</v>
+        <v>1524671957521932488543547252801536</v>
       </c>
       <c r="F28" t="n">
-        <v>39226122281737481801777750804004864</v>
+        <v>2331784537839707461616119064821760</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-399242872175965623607603309506985984</v>
+        <v>-18607982973891864937382095324446720</v>
       </c>
       <c r="D29" t="n">
-        <v>-610589282232036882618344428389007360</v>
+        <v>-28458454138179045569110268761341952</v>
       </c>
       <c r="E29" t="n">
-        <v>399242872175965623607603309506985984</v>
+        <v>18607982973891864937382095324446720</v>
       </c>
       <c r="F29" t="n">
-        <v>610589282232036882618344428389007360</v>
+        <v>28458454138179045569110268761341952</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-21872160494451848246824012468323352576</v>
+        <v>-269793466803701473861795962020691968</v>
       </c>
       <c r="D30" t="n">
-        <v>-33450582860462727002461347416975081472</v>
+        <v>-412613501021902173170086434352136192</v>
       </c>
       <c r="E30" t="n">
-        <v>21872160494451848246824012468323352576</v>
+        <v>269793466803701473861795962020691968</v>
       </c>
       <c r="F30" t="n">
-        <v>33450582860462727002461347416975081472</v>
+        <v>412613501021902173170086434352136192</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-715046036718456872980451179916758614016</v>
+        <v>-10535361038712875611021682485657337856</v>
       </c>
       <c r="D31" t="n">
-        <v>-1093568543736843025697876607156992606208</v>
+        <v>-16112444286413770342684819581023813632</v>
       </c>
       <c r="E31" t="n">
-        <v>715046036718456872980451179916758614016</v>
+        <v>10535361038712875611021682485657337856</v>
       </c>
       <c r="F31" t="n">
-        <v>1093568543736843025697876607156992606208</v>
+        <v>16112444286413770342684819581023813632</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-4309226933887737504489303654614605758464</v>
+        <v>-174815038322756109368059008215607672832</v>
       </c>
       <c r="D32" t="n">
-        <v>-6590393877784227850449451405558421651456</v>
+        <v>-267356529600889444351641982734459469824</v>
       </c>
       <c r="E32" t="n">
-        <v>4309226933887737504489303654614605758464</v>
+        <v>174815038322756109368059008215607672832</v>
       </c>
       <c r="F32" t="n">
-        <v>6590393877784227850449451405558421651456</v>
+        <v>267356529600889444351641982734459469824</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-172195514546911448846719015518572904448000</v>
+        <v>-1480906555212690286155907231792177872896</v>
       </c>
       <c r="D33" t="n">
-        <v>-263350313701866992425108260761083247067136</v>
+        <v>-2264851131021567204093587342770988646400</v>
       </c>
       <c r="E33" t="n">
-        <v>172195514546911448846719015518572904448000</v>
+        <v>1480906555212690286155907231792177872896</v>
       </c>
       <c r="F33" t="n">
-        <v>263350313701866992425108260761083247067136</v>
+        <v>2264851131021567204093587342770988646400</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-2007674245609057698818034336402134615982080</v>
+        <v>-11022452953807029596550321062760759164928</v>
       </c>
       <c r="D34" t="n">
-        <v>-3070472792415647559755006574972270633025536</v>
+        <v>-16857387085761442406188840116455680770048</v>
       </c>
       <c r="E34" t="n">
-        <v>2007674245609057698818034336402134615982080</v>
+        <v>11022452953807029596550321062760759164928</v>
       </c>
       <c r="F34" t="n">
-        <v>3070472792415647559755006574972270633025536</v>
+        <v>16857387085761442406188840116455680770048</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-20248191499708006607105364983280331592302592</v>
+        <v>-107783257132675304916176395584983948853248</v>
       </c>
       <c r="D35" t="n">
-        <v>-30966936609088478018130209770310814620712960</v>
+        <v>-164840266904665142790521080237579869093888</v>
       </c>
       <c r="E35" t="n">
-        <v>20248191499708006607105364983280331592302592</v>
+        <v>107783257132675304916176395584983948853248</v>
       </c>
       <c r="F35" t="n">
-        <v>30966936609088478018130209770310814620712960</v>
+        <v>164840266904665142790521080237579869093888</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-37956623290109959487179724231669678300200960</v>
+        <v>-709213458959222532894994798445085115547648</v>
       </c>
       <c r="D36" t="n">
-        <v>-58049645931926145236051973040750856316649472</v>
+        <v>-1084648385818522391984878804439109833064448</v>
       </c>
       <c r="E36" t="n">
-        <v>37956623290109959487179724231669678300200960</v>
+        <v>709213458959222532894994798445085115547648</v>
       </c>
       <c r="F36" t="n">
-        <v>58049645931926145236051973040750856316649472</v>
+        <v>1084648385818522391984878804439109833064448</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-1318.84858082433</v>
+        <v>-4906.88156282796</v>
       </c>
       <c r="D3" t="n">
-        <v>-2655.59409867514</v>
+        <v>-8143.01700785829</v>
       </c>
       <c r="E3" t="n">
-        <v>3731.49620405769</v>
+        <v>7319.52918606132</v>
       </c>
       <c r="F3" t="n">
-        <v>5068.2417219085</v>
+        <v>10555.6646310917</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-71599.9713099353</v>
+        <v>-371619.770673519</v>
       </c>
       <c r="D4" t="n">
-        <v>-110313.261132074</v>
+        <v>-569153.948632363</v>
       </c>
       <c r="E4" t="n">
-        <v>74662.3192666634</v>
+        <v>374682.118630247</v>
       </c>
       <c r="F4" t="n">
-        <v>113375.609088802</v>
+        <v>572216.296589091</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-1391101.76457733</v>
+        <v>-15974613.8406959</v>
       </c>
       <c r="D5" t="n">
-        <v>-2128253.47819063</v>
+        <v>-24431810.5146574</v>
       </c>
       <c r="E5" t="n">
-        <v>1393923.70421892</v>
+        <v>15977435.7803375</v>
       </c>
       <c r="F5" t="n">
-        <v>2131075.41783222</v>
+        <v>24434632.454299</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-22786403.1884488</v>
+        <v>-753249023.832765</v>
       </c>
       <c r="D6" t="n">
-        <v>-34849548.2908206</v>
+        <v>-1151995722.51223</v>
       </c>
       <c r="E6" t="n">
-        <v>22789243.891325</v>
+        <v>753251864.535641</v>
       </c>
       <c r="F6" t="n">
-        <v>34852388.9936968</v>
+        <v>1151998563.2151</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-529172228.400602</v>
+        <v>-37571949288.2484</v>
       </c>
       <c r="D7" t="n">
-        <v>-809299836.331783</v>
+        <v>-57461338565.4917</v>
       </c>
       <c r="E7" t="n">
-        <v>529175067.269629</v>
+        <v>37571952127.1175</v>
       </c>
       <c r="F7" t="n">
-        <v>809302675.20081</v>
+        <v>57461341404.3608</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-9306953755.882</v>
+        <v>-1464163381941.26</v>
       </c>
       <c r="D8" t="n">
-        <v>-14233758273.0013</v>
+        <v>-2239244658016.37</v>
       </c>
       <c r="E8" t="n">
-        <v>9306956795.44825</v>
+        <v>1464163384980.82</v>
       </c>
       <c r="F8" t="n">
-        <v>14233761312.5676</v>
+        <v>2239244661055.94</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-122522303404.407</v>
+        <v>-71990775402233.4</v>
       </c>
       <c r="D9" t="n">
-        <v>-187381693803.498</v>
+        <v>-110100389872804</v>
       </c>
       <c r="E9" t="n">
-        <v>122522306566.923</v>
+        <v>71990775405396</v>
       </c>
       <c r="F9" t="n">
-        <v>187381696966.014</v>
+        <v>110100389875966</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-2014346193363.26</v>
+        <v>-3481009624299808</v>
       </c>
       <c r="D10" t="n">
-        <v>-3080676656728.35</v>
+        <v>-5323744808166647</v>
       </c>
       <c r="E10" t="n">
-        <v>2014346196251.13</v>
+        <v>3481009624302696</v>
       </c>
       <c r="F10" t="n">
-        <v>3080676659616.22</v>
+        <v>5323744808169535</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-22814754039145.2</v>
+        <v>-132887586845656592</v>
       </c>
       <c r="D11" t="n">
-        <v>-34892155287405.8</v>
+        <v>-203234026013806976</v>
       </c>
       <c r="E11" t="n">
-        <v>22814754041904.4</v>
+        <v>132887586845659344</v>
       </c>
       <c r="F11" t="n">
-        <v>34892155290165</v>
+        <v>203234026013809728</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-285481317528384</v>
+        <v>-5582325961054722048</v>
       </c>
       <c r="D12" t="n">
-        <v>-436605998275076</v>
+        <v>-8537430820413931520</v>
       </c>
       <c r="E12" t="n">
-        <v>285481317531070</v>
+        <v>5582325961054724096</v>
       </c>
       <c r="F12" t="n">
-        <v>436605998277762</v>
+        <v>8537430820413933568</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-5065677161127193</v>
+        <v>-234599453450404691968</v>
       </c>
       <c r="D13" t="n">
-        <v>-7747284666534725</v>
+        <v>-358788902388158955520</v>
       </c>
       <c r="E13" t="n">
-        <v>5065677161129715</v>
+        <v>234599453450404691968</v>
       </c>
       <c r="F13" t="n">
-        <v>7747284666537247</v>
+        <v>358788902388158955520</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-88256460043680288</v>
+        <v>-11984601872913097818112</v>
       </c>
       <c r="D14" t="n">
-        <v>-134976607839501280</v>
+        <v>-18328866876284475539456</v>
       </c>
       <c r="E14" t="n">
-        <v>88256460043682752</v>
+        <v>11984601872913097818112</v>
       </c>
       <c r="F14" t="n">
-        <v>134976607839503744</v>
+        <v>18328866876284475539456</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-1428218010664249088</v>
+        <v>-554897613489882578026496</v>
       </c>
       <c r="D15" t="n">
-        <v>-2184270955795536640</v>
+        <v>-848642666270885077319680</v>
       </c>
       <c r="E15" t="n">
-        <v>1428218010664251648</v>
+        <v>554897613489882578026496</v>
       </c>
       <c r="F15" t="n">
-        <v>2184270955795539200</v>
+        <v>848642666270885077319680</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-33299100491210207232</v>
+        <v>-34903945465087527724515328</v>
       </c>
       <c r="D16" t="n">
-        <v>-50926579495548715008</v>
+        <v>-53380978080932988152971264</v>
       </c>
       <c r="E16" t="n">
-        <v>33299100491210207232</v>
+        <v>34903945465087527724515328</v>
       </c>
       <c r="F16" t="n">
-        <v>50926579495548715008</v>
+        <v>53380978080932988152971264</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-325500791234036039680</v>
+        <v>-1515400512569973898158800896</v>
       </c>
       <c r="D17" t="n">
-        <v>-497810501668649959424</v>
+        <v>-2317605086400496339324502016</v>
       </c>
       <c r="E17" t="n">
-        <v>325500791234036039680</v>
+        <v>1515400512569973898158800896</v>
       </c>
       <c r="F17" t="n">
-        <v>497810501668649959424</v>
+        <v>2317605086400496339324502016</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-3451872907720265826304</v>
+        <v>-55575727651599921477060657152</v>
       </c>
       <c r="D18" t="n">
-        <v>-5279184045525492039680</v>
+        <v>-84995740741383182482642305024</v>
       </c>
       <c r="E18" t="n">
-        <v>3451872907720265826304</v>
+        <v>55575727651599921477060657152</v>
       </c>
       <c r="F18" t="n">
-        <v>5279184045525492039680</v>
+        <v>84995740741383182482642305024</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-83782956181869373161472</v>
+        <v>-2688609498769740035763296272384</v>
       </c>
       <c r="D19" t="n">
-        <v>-128134974081186515648512</v>
+        <v>-4111873394529892517357591461888</v>
       </c>
       <c r="E19" t="n">
-        <v>83782956181869373161472</v>
+        <v>2688609498769740035763296272384</v>
       </c>
       <c r="F19" t="n">
-        <v>128134974081186515648512</v>
+        <v>4111873394529892517357591461888</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-1449667192660159054741504</v>
+        <v>-112791440434235935381515686379520</v>
       </c>
       <c r="D20" t="n">
-        <v>-2217074648865789691559936</v>
+        <v>-172499622300842621417318116229120</v>
       </c>
       <c r="E20" t="n">
-        <v>1449667192660159054741504</v>
+        <v>112791440434235935381515686379520</v>
       </c>
       <c r="F20" t="n">
-        <v>2217074648865789691559936</v>
+        <v>172499622300842621417318116229120</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-15014269584523748098179072</v>
+        <v>-4978286638540915746503713825488896</v>
       </c>
       <c r="D21" t="n">
-        <v>-22962343795613401211731968</v>
+        <v>-7613632395752076774994305282473984</v>
       </c>
       <c r="E21" t="n">
-        <v>15014269584523748098179072</v>
+        <v>4978286638540915746503713825488896</v>
       </c>
       <c r="F21" t="n">
-        <v>22962343795613401211731968</v>
+        <v>7613632395752076774994305282473984</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-155671956960609258254106624</v>
+        <v>-181084684594749864325495798447996928</v>
       </c>
       <c r="D22" t="n">
-        <v>-238079713098399656724922368</v>
+        <v>-276945126126610668041326575019360256</v>
       </c>
       <c r="E22" t="n">
-        <v>155671956960609258254106624</v>
+        <v>181084684594749864325495798447996928</v>
       </c>
       <c r="F22" t="n">
-        <v>238079713098399656724922368</v>
+        <v>276945126126610668041326575019360256</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-1861843865186739611370520576</v>
+        <v>-6323175486796606661061931207911014400</v>
       </c>
       <c r="D23" t="n">
-        <v>-2847444471773663211118657536</v>
+        <v>-9670462395152495920522036266376626176</v>
       </c>
       <c r="E23" t="n">
-        <v>1861843865186739611370520576</v>
+        <v>6323175486796606661061931207911014400</v>
       </c>
       <c r="F23" t="n">
-        <v>2847444471773663211118657536</v>
+        <v>9670462395152495920522036266376626176</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-15573841857251603553550598144</v>
+        <v>-249001736439484805535950350299349123072</v>
       </c>
       <c r="D24" t="n">
-        <v>-23818135736242613155109273600</v>
+        <v>-380815293454019239882342113003507286016</v>
       </c>
       <c r="E24" t="n">
-        <v>15573841857251603553550598144</v>
+        <v>249001736439484805535950350299349123072</v>
       </c>
       <c r="F24" t="n">
-        <v>23818135736242613155109273600</v>
+        <v>380815293454019239882342113003507286016</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-368762995416748619126106226688</v>
+        <v>-7370874414180848161557743199611233763328</v>
       </c>
       <c r="D25" t="n">
-        <v>-563974333362696480718321614848</v>
+        <v>-11272779632728290892744595490883430776832</v>
       </c>
       <c r="E25" t="n">
-        <v>368762995416748619126106226688</v>
+        <v>7370874414180848161557743199611233763328</v>
       </c>
       <c r="F25" t="n">
-        <v>563974333362696480718321614848</v>
+        <v>11272779632728290892744595490883430776832</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-3816967504711699979881710354432</v>
+        <v>-343640492846096660265603773098166384066560</v>
       </c>
       <c r="D26" t="n">
-        <v>-5837548047639828227864926355456</v>
+        <v>-525552781266142054299241025997897677668352</v>
       </c>
       <c r="E26" t="n">
-        <v>3816967504711699979881710354432</v>
+        <v>343640492846096660265603773098166384066560</v>
       </c>
       <c r="F26" t="n">
-        <v>5837548047639828227864926355456</v>
+        <v>525552781266142054299241025997897677668352</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-66469733196415247061249217789952</v>
+        <v>-17023695625981263311143723523132053411332096</v>
       </c>
       <c r="D27" t="n">
-        <v>-101656684467158374142648420139008</v>
+        <v>-26035495728583007200726371632631327548768256</v>
       </c>
       <c r="E27" t="n">
-        <v>66469733196415247061249217789952</v>
+        <v>17023695625981263311143723523132053411332096</v>
       </c>
       <c r="F27" t="n">
-        <v>101656684467158374142648420139008</v>
+        <v>26035495728583007200726371632631327548768256</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-1524671957521932488543547252801536</v>
+        <v>-1210725109643134688821291992179890113732411392</v>
       </c>
       <c r="D28" t="n">
-        <v>-2331784537839707461616119064821760</v>
+        <v>-1851644267681452990016591165596178439970226176</v>
       </c>
       <c r="E28" t="n">
-        <v>1524671957521932488543547252801536</v>
+        <v>1210725109643134688821291992179890113732411392</v>
       </c>
       <c r="F28" t="n">
-        <v>2331784537839707461616119064821760</v>
+        <v>1851644267681452990016591165596178439970226176</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-18607982973891864937382095324446720</v>
+        <v>-38933912822471284256839642520358656862014406656</v>
       </c>
       <c r="D29" t="n">
-        <v>-28458454138179045569110268761341952</v>
+        <v>-59544281292214762359992730804594397024245252096</v>
       </c>
       <c r="E29" t="n">
-        <v>18607982973891864937382095324446720</v>
+        <v>38933912822471284256839642520358656862014406656</v>
       </c>
       <c r="F29" t="n">
-        <v>28458454138179045569110268761341952</v>
+        <v>59544281292214762359992730804594397024245252096</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-269793466803701473861795962020691968</v>
+        <v>-1096496846883469075250999796234883833197171310592</v>
       </c>
       <c r="D30" t="n">
-        <v>-412613501021902173170086434352136192</v>
+        <v>-1676947215260950213238171279843995004854366896128</v>
       </c>
       <c r="E30" t="n">
-        <v>269793466803701473861795962020691968</v>
+        <v>1096496846883469075250999796234883833197171310592</v>
       </c>
       <c r="F30" t="n">
-        <v>412613501021902173170086434352136192</v>
+        <v>1676947215260950213238171279843995004854366896128</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-10535361038712875611021682485657337856</v>
+        <v>-52295186650726984484013062386558430407922762645504</v>
       </c>
       <c r="D31" t="n">
-        <v>-16112444286413770342684819581023813632</v>
+        <v>-79978586235559149670120169769383137563289717833728</v>
       </c>
       <c r="E31" t="n">
-        <v>10535361038712875611021682485657337856</v>
+        <v>52295186650726984484013062386558430407922762645504</v>
       </c>
       <c r="F31" t="n">
-        <v>16112444286413770342684819581023813632</v>
+        <v>79978586235559149670120169769383137563289717833728</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-174815038322756109368059008215607672832</v>
+        <v>-1629780779853168848918069042243181744521791307513856</v>
       </c>
       <c r="D32" t="n">
-        <v>-267356529600889444351641982734459469824</v>
+        <v>-2492534609678680085026772553305816311896278581641216</v>
       </c>
       <c r="E32" t="n">
-        <v>174815038322756109368059008215607672832</v>
+        <v>1629780779853168848918069042243181744521791307513856</v>
       </c>
       <c r="F32" t="n">
-        <v>267356529600889444351641982734459469824</v>
+        <v>2492534609678680085026772553305816311896278581641216</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-1480906555212690286155907231792177872896</v>
+        <v>-50248518055095306335886358385661473837306884390912000</v>
       </c>
       <c r="D33" t="n">
-        <v>-2264851131021567204093587342770988646400</v>
+        <v>-76848476731129956156374304835949670956103788570607616</v>
       </c>
       <c r="E33" t="n">
-        <v>1480906555212690286155907231792177872896</v>
+        <v>50248518055095306335886358385661473837306884390912000</v>
       </c>
       <c r="F33" t="n">
-        <v>2264851131021567204093587342770988646400</v>
+        <v>76848476731129956156374304835949670956103788570607616</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-11022452953807029596550321062760759164928</v>
+        <v>-1918437234248819509387776253240297392419356896722419712</v>
       </c>
       <c r="D34" t="n">
-        <v>-16857387085761442406188840116455680770048</v>
+        <v>-2933996560747409189737210708143068196898087091830784000</v>
       </c>
       <c r="E34" t="n">
-        <v>11022452953807029596550321062760759164928</v>
+        <v>1918437234248819509387776253240297392419356896722419712</v>
       </c>
       <c r="F34" t="n">
-        <v>16857387085761442406188840116455680770048</v>
+        <v>2933996560747409189737210708143068196898087091830784000</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-107783257132675304916176395584983948853248</v>
+        <v>-73722676701967515789381972702418197083850433049680412672</v>
       </c>
       <c r="D35" t="n">
-        <v>-164840266904665142790521080237579869093888</v>
+        <v>-112749104339272675166114080286220479483690891351573921792</v>
       </c>
       <c r="E35" t="n">
-        <v>107783257132675304916176395584983948853248</v>
+        <v>73722676701967515789381972702418197083850433049680412672</v>
       </c>
       <c r="F35" t="n">
-        <v>164840266904665142790521080237579869093888</v>
+        <v>112749104339272675166114080286220479483690891351573921792</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-709213458959222532894994798445085115547648</v>
+        <v>-2423988120662069185202775395696335416468176731809842724864</v>
       </c>
       <c r="D36" t="n">
-        <v>-1084648385818522391984878804439109833064448</v>
+        <v>-3707169920573315450810213996756366243918940074775760863232</v>
       </c>
       <c r="E36" t="n">
-        <v>709213458959222532894994798445085115547648</v>
+        <v>2423988120662069185202775395696335416468176731809842724864</v>
       </c>
       <c r="F36" t="n">
-        <v>1084648385818522391984878804439109833064448</v>
+        <v>3707169920573315450810213996756366243918940074775760863232</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-4906.88156282796</v>
+        <v>-3138.38810380977</v>
       </c>
       <c r="D3" t="n">
-        <v>-8143.01700785829</v>
+        <v>-5438.33966223985</v>
       </c>
       <c r="E3" t="n">
-        <v>7319.52918606132</v>
+        <v>5551.03572704313</v>
       </c>
       <c r="F3" t="n">
-        <v>10555.6646310917</v>
+        <v>7850.98728547321</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-371619.770673519</v>
+        <v>-182524.732304287</v>
       </c>
       <c r="D4" t="n">
-        <v>-569153.948632363</v>
+        <v>-279958.043587826</v>
       </c>
       <c r="E4" t="n">
-        <v>374682.118630247</v>
+        <v>185587.080261015</v>
       </c>
       <c r="F4" t="n">
-        <v>572216.296589091</v>
+        <v>283020.391544554</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-15974613.8406959</v>
+        <v>-5281023.21151544</v>
       </c>
       <c r="D5" t="n">
-        <v>-24431810.5146574</v>
+        <v>-8077374.9522444</v>
       </c>
       <c r="E5" t="n">
-        <v>15977435.7803375</v>
+        <v>5283845.15115702</v>
       </c>
       <c r="F5" t="n">
-        <v>24434632.454299</v>
+        <v>8080196.89188599</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-753249023.832765</v>
+        <v>-163071162.639218</v>
       </c>
       <c r="D6" t="n">
-        <v>-1151995722.51223</v>
+        <v>-249396573.549637</v>
       </c>
       <c r="E6" t="n">
-        <v>753251864.535641</v>
+        <v>163074003.342095</v>
       </c>
       <c r="F6" t="n">
-        <v>1151998563.2151</v>
+        <v>249399414.252513</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-37571949288.2484</v>
+        <v>-5115953891.80773</v>
       </c>
       <c r="D7" t="n">
-        <v>-57461338565.4917</v>
+        <v>-7824177042.15563</v>
       </c>
       <c r="E7" t="n">
-        <v>37571952127.1175</v>
+        <v>5115956730.67676</v>
       </c>
       <c r="F7" t="n">
-        <v>57461341404.3608</v>
+        <v>7824179881.02466</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-1464163381941.26</v>
+        <v>-128959389086.945</v>
       </c>
       <c r="D8" t="n">
-        <v>-2239244658016.37</v>
+        <v>-197226366777.002</v>
       </c>
       <c r="E8" t="n">
-        <v>1464163384980.82</v>
+        <v>128959392126.511</v>
       </c>
       <c r="F8" t="n">
-        <v>2239244661055.94</v>
+        <v>197226369816.568</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-71990775402233.4</v>
+        <v>-2896729619832</v>
       </c>
       <c r="D9" t="n">
-        <v>-110100389872804</v>
+        <v>-4430165653522.65</v>
       </c>
       <c r="E9" t="n">
-        <v>71990775405396</v>
+        <v>2896729622994.52</v>
       </c>
       <c r="F9" t="n">
-        <v>110100389875966</v>
+        <v>4430165656685.16</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-3481009624299808</v>
+        <v>-43145540136480.4</v>
       </c>
       <c r="D10" t="n">
-        <v>-5323744808166647</v>
+        <v>-65985409433035.9</v>
       </c>
       <c r="E10" t="n">
-        <v>3481009624302696</v>
+        <v>43145540139368.3</v>
       </c>
       <c r="F10" t="n">
-        <v>5323744808169535</v>
+        <v>65985409435923.8</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-132887586845656592</v>
+        <v>-479093986262922</v>
       </c>
       <c r="D11" t="n">
-        <v>-203234026013806976</v>
+        <v>-732711022741372</v>
       </c>
       <c r="E11" t="n">
-        <v>132887586845659344</v>
+        <v>479093986265681</v>
       </c>
       <c r="F11" t="n">
-        <v>203234026013809728</v>
+        <v>732711022744131</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-5582325961054722048</v>
+        <v>-4450675219761180</v>
       </c>
       <c r="D12" t="n">
-        <v>-8537430820413931520</v>
+        <v>-6806720363148843</v>
       </c>
       <c r="E12" t="n">
-        <v>5582325961054724096</v>
+        <v>4450675219763866</v>
       </c>
       <c r="F12" t="n">
-        <v>8537430820413933568</v>
+        <v>6806720363151529</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-234599453450404691968</v>
+        <v>-45850128346607128</v>
       </c>
       <c r="D13" t="n">
-        <v>-358788902388158955520</v>
+        <v>-70121720157004760</v>
       </c>
       <c r="E13" t="n">
-        <v>234599453450404691968</v>
+        <v>45850128346609656</v>
       </c>
       <c r="F13" t="n">
-        <v>358788902388158955520</v>
+        <v>70121720157007288</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-11984601872913097818112</v>
+        <v>-695026190262435840</v>
       </c>
       <c r="D14" t="n">
-        <v>-18328866876284475539456</v>
+        <v>-1062950830735846528</v>
       </c>
       <c r="E14" t="n">
-        <v>11984601872913097818112</v>
+        <v>695026190262438400</v>
       </c>
       <c r="F14" t="n">
-        <v>18328866876284475539456</v>
+        <v>1062950830735849088</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-554897613489882578026496</v>
+        <v>-7132214628359017472</v>
       </c>
       <c r="D15" t="n">
-        <v>-848642666270885077319680</v>
+        <v>-10907780987847346176</v>
       </c>
       <c r="E15" t="n">
-        <v>554897613489882578026496</v>
+        <v>7132214628359019520</v>
       </c>
       <c r="F15" t="n">
-        <v>848642666270885077319680</v>
+        <v>10907780987847350272</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-34903945465087527724515328</v>
+        <v>-67435806403877314560</v>
       </c>
       <c r="D16" t="n">
-        <v>-53380978080932988152971264</v>
+        <v>-103134165938807226368</v>
       </c>
       <c r="E16" t="n">
-        <v>34903945465087527724515328</v>
+        <v>67435806403877314560</v>
       </c>
       <c r="F16" t="n">
-        <v>53380978080932988152971264</v>
+        <v>103134165938807226368</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-1515400512569973898158800896</v>
+        <v>-635463099416003477504</v>
       </c>
       <c r="D17" t="n">
-        <v>-2317605086400496339324502016</v>
+        <v>-971856944227045867520</v>
       </c>
       <c r="E17" t="n">
-        <v>1515400512569973898158800896</v>
+        <v>635463099416003477504</v>
       </c>
       <c r="F17" t="n">
-        <v>2317605086400496339324502016</v>
+        <v>971856944227045867520</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-55575727651599921477060657152</v>
+        <v>-5718271447343545974784</v>
       </c>
       <c r="D18" t="n">
-        <v>-84995740741383182482642305024</v>
+        <v>-8745341500054551134208</v>
       </c>
       <c r="E18" t="n">
-        <v>55575727651599921477060657152</v>
+        <v>5718271447343545974784</v>
       </c>
       <c r="F18" t="n">
-        <v>84995740741383182482642305024</v>
+        <v>8745341500054551134208</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-2688609498769740035763296272384</v>
+        <v>-52769552505074507317248</v>
       </c>
       <c r="D19" t="n">
-        <v>-4111873394529892517357591461888</v>
+        <v>-80704066204538486390784</v>
       </c>
       <c r="E19" t="n">
-        <v>2688609498769740035763296272384</v>
+        <v>52769552505074507317248</v>
       </c>
       <c r="F19" t="n">
-        <v>4111873394529892517357591461888</v>
+        <v>80704066204538486390784</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-112791440434235935381515686379520</v>
+        <v>-286318566544215073882112</v>
       </c>
       <c r="D20" t="n">
-        <v>-172499622300842621417318116229120</v>
+        <v>-437886460146707427491840</v>
       </c>
       <c r="E20" t="n">
-        <v>112791440434235935381515686379520</v>
+        <v>286318566544215073882112</v>
       </c>
       <c r="F20" t="n">
-        <v>172499622300842621417318116229120</v>
+        <v>437886460146707427491840</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-4978286638540915746503713825488896</v>
+        <v>-2765249167656725935816704</v>
       </c>
       <c r="D21" t="n">
-        <v>-7613632395752076774994305282473984</v>
+        <v>-4229083653441117352886272</v>
       </c>
       <c r="E21" t="n">
-        <v>4978286638540915746503713825488896</v>
+        <v>2765249167656725935816704</v>
       </c>
       <c r="F21" t="n">
-        <v>7613632395752076774994305282473984</v>
+        <v>4229083653441117352886272</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-181084684594749864325495798447996928</v>
+        <v>-40059307685560166362644480</v>
       </c>
       <c r="D22" t="n">
-        <v>-276945126126610668041326575019360256</v>
+        <v>-61265424209396758000697344</v>
       </c>
       <c r="E22" t="n">
-        <v>181084684594749864325495798447996928</v>
+        <v>40059307685560166362644480</v>
       </c>
       <c r="F22" t="n">
-        <v>276945126126610668041326575019360256</v>
+        <v>61265424209396758000697344</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-6323175486796606661061931207911014400</v>
+        <v>-316482046648442926829404160</v>
       </c>
       <c r="D23" t="n">
-        <v>-9670462395152495920522036266376626176</v>
+        <v>-484017522089231710137876480</v>
       </c>
       <c r="E23" t="n">
-        <v>6323175486796606661061931207911014400</v>
+        <v>316482046648442926829404160</v>
       </c>
       <c r="F23" t="n">
-        <v>9670462395152495920522036266376626176</v>
+        <v>484017522089231710137876480</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-249001736439484805535950350299349123072</v>
+        <v>-4098492057602329841181392896</v>
       </c>
       <c r="D24" t="n">
-        <v>-380815293454019239882342113003507286016</v>
+        <v>-6268102696601531301989711872</v>
       </c>
       <c r="E24" t="n">
-        <v>249001736439484805535950350299349123072</v>
+        <v>4098492057602329841181392896</v>
       </c>
       <c r="F24" t="n">
-        <v>380815293454019239882342113003507286016</v>
+        <v>6268102696601531301989711872</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-7370874414180848161557743199611233763328</v>
+        <v>-40101011084126490324801421312</v>
       </c>
       <c r="D25" t="n">
-        <v>-11272779632728290892744595490883430776832</v>
+        <v>-61329204053626580038863290368</v>
       </c>
       <c r="E25" t="n">
-        <v>7370874414180848161557743199611233763328</v>
+        <v>40101011084126490324801421312</v>
       </c>
       <c r="F25" t="n">
-        <v>11272779632728290892744595490883430776832</v>
+        <v>61329204053626580038863290368</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-343640492846096660265603773098166384066560</v>
+        <v>-387276603220320494739414581248</v>
       </c>
       <c r="D26" t="n">
-        <v>-525552781266142054299241025997897677668352</v>
+        <v>-592288453133195622194543067136</v>
       </c>
       <c r="E26" t="n">
-        <v>343640492846096660265603773098166384066560</v>
+        <v>387276603220320494739414581248</v>
       </c>
       <c r="F26" t="n">
-        <v>525552781266142054299241025997897677668352</v>
+        <v>592288453133195622194543067136</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-17023695625981263311143723523132053411332096</v>
+        <v>-6318118048750833398907085520896</v>
       </c>
       <c r="D27" t="n">
-        <v>-26035495728583007200726371632631327548768256</v>
+        <v>-9662727711125523886682799079424</v>
       </c>
       <c r="E27" t="n">
-        <v>17023695625981263311143723523132053411332096</v>
+        <v>6318118048750833398907085520896</v>
       </c>
       <c r="F27" t="n">
-        <v>26035495728583007200726371632631327548768256</v>
+        <v>9662727711125523886682799079424</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-1210725109643134688821291992179890113732411392</v>
+        <v>-40695655781243196971860887601152</v>
       </c>
       <c r="D28" t="n">
-        <v>-1851644267681452990016591165596178439970226176</v>
+        <v>-62238634638615331480130457436160</v>
       </c>
       <c r="E28" t="n">
-        <v>1210725109643134688821291992179890113732411392</v>
+        <v>40695655781243196971860887601152</v>
       </c>
       <c r="F28" t="n">
-        <v>1851644267681452990016591165596178439970226176</v>
+        <v>62238634638615331480130457436160</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-38933912822471284256839642520358656862014406656</v>
+        <v>-207379361629424391876499059245056</v>
       </c>
       <c r="D29" t="n">
-        <v>-59544281292214762359992730804594397024245252096</v>
+        <v>-317159364366157289321262594654208</v>
       </c>
       <c r="E29" t="n">
-        <v>38933912822471284256839642520358656862014406656</v>
+        <v>207379361629424391876499059245056</v>
       </c>
       <c r="F29" t="n">
-        <v>59544281292214762359992730804594397024245252096</v>
+        <v>317159364366157289321262594654208</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-1096496846883469075250999796234883833197171310592</v>
+        <v>-6264590867817844683705208214126592</v>
       </c>
       <c r="D30" t="n">
-        <v>-1676947215260950213238171279843995004854366896128</v>
+        <v>-9580864952229799705719303592476672</v>
       </c>
       <c r="E30" t="n">
-        <v>1096496846883469075250999796234883833197171310592</v>
+        <v>6264590867817844683705208214126592</v>
       </c>
       <c r="F30" t="n">
-        <v>1676947215260950213238171279843995004854366896128</v>
+        <v>9580864952229799705719303592476672</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-52295186650726984484013062386558430407922762645504</v>
+        <v>-30145753706863426121988252285009920</v>
       </c>
       <c r="D31" t="n">
-        <v>-79978586235559149670120169769383137563289717833728</v>
+        <v>-46103951757227098597438106326007808</v>
       </c>
       <c r="E31" t="n">
-        <v>52295186650726984484013062386558430407922762645504</v>
+        <v>30145753706863426121988252285009920</v>
       </c>
       <c r="F31" t="n">
-        <v>79978586235559149670120169769383137563289717833728</v>
+        <v>46103951757227098597438106326007808</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-1629780779853168848918069042243181744521791307513856</v>
+        <v>-175864761923163015302130665456140288</v>
       </c>
       <c r="D32" t="n">
-        <v>-2492534609678680085026772553305816311896278581641216</v>
+        <v>-268961943308643679736506138595688448</v>
       </c>
       <c r="E32" t="n">
-        <v>1629780779853168848918069042243181744521791307513856</v>
+        <v>175864761923163015302130665456140288</v>
       </c>
       <c r="F32" t="n">
-        <v>2492534609678680085026772553305816311896278581641216</v>
+        <v>268961943308643679736506138595688448</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-50248518055095306335886358385661473837306884390912000</v>
+        <v>-2301718501540382766974528886044360704</v>
       </c>
       <c r="D33" t="n">
-        <v>-76848476731129956156374304835949670956103788570607616</v>
+        <v>-3520174674868865386178568110802468864</v>
       </c>
       <c r="E33" t="n">
-        <v>50248518055095306335886358385661473837306884390912000</v>
+        <v>2301718501540382766974528886044360704</v>
       </c>
       <c r="F33" t="n">
-        <v>76848476731129956156374304835949670956103788570607616</v>
+        <v>3520174674868865386178568110802468864</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-1918437234248819509387776253240297392419356896722419712</v>
+        <v>-27757892728899933177237583004094693376</v>
       </c>
       <c r="D34" t="n">
-        <v>-2933996560747409189737210708143068196898087091830784000</v>
+        <v>-42452033533469792501824412304216686592</v>
       </c>
       <c r="E34" t="n">
-        <v>1918437234248819509387776253240297392419356896722419712</v>
+        <v>27757892728899933177237583004094693376</v>
       </c>
       <c r="F34" t="n">
-        <v>2933996560747409189737210708143068196898087091830784000</v>
+        <v>42452033533469792501824412304216686592</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-73722676701967515789381972702418197083850433049680412672</v>
+        <v>-246113950673383724817866051601865637888</v>
       </c>
       <c r="D35" t="n">
-        <v>-112749104339272675166114080286220479483690891351573921792</v>
+        <v>-376398806245234708617450023190785949696</v>
       </c>
       <c r="E35" t="n">
-        <v>73722676701967515789381972702418197083850433049680412672</v>
+        <v>246113950673383724817866051601865637888</v>
       </c>
       <c r="F35" t="n">
-        <v>112749104339272675166114080286220479483690891351573921792</v>
+        <v>376398806245234708617450023190785949696</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-2423988120662069185202775395696335416468176731809842724864</v>
+        <v>-2663030074206424243353743222083248193536</v>
       </c>
       <c r="D36" t="n">
-        <v>-3707169920573315450810213996756366243918940074775760863232</v>
+        <v>-4072753040548621267322372754594177482752</v>
       </c>
       <c r="E36" t="n">
-        <v>2423988120662069185202775395696335416468176731809842724864</v>
+        <v>2663030074206424243353743222083248193536</v>
       </c>
       <c r="F36" t="n">
-        <v>3707169920573315450810213996756366243918940074775760863232</v>
+        <v>4072753040548621267322372754594177482752</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>

--- a/outcome/appendix/data/PHSMs/HAV.xlsx
+++ b/outcome/appendix/data/PHSMs/HAV.xlsx
@@ -462,16 +462,16 @@
         <v>1206.32381161668</v>
       </c>
       <c r="C3" t="n">
-        <v>-3138.38810380977</v>
+        <v>-4025.31637494483</v>
       </c>
       <c r="D3" t="n">
-        <v>-5438.33966223985</v>
+        <v>-6794.77939906494</v>
       </c>
       <c r="E3" t="n">
-        <v>5551.03572704313</v>
+        <v>6437.96399817819</v>
       </c>
       <c r="F3" t="n">
-        <v>7850.98728547321</v>
+        <v>9207.4270222983</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -494,16 +494,16 @@
         <v>1531.17397836404</v>
       </c>
       <c r="C4" t="n">
-        <v>-182524.732304287</v>
+        <v>-300452.377158042</v>
       </c>
       <c r="D4" t="n">
-        <v>-279958.043587826</v>
+        <v>-460312.812688958</v>
       </c>
       <c r="E4" t="n">
-        <v>185587.080261015</v>
+        <v>303514.72511477</v>
       </c>
       <c r="F4" t="n">
-        <v>283020.391544554</v>
+        <v>463375.160645686</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>1410.96982079323</v>
       </c>
       <c r="C5" t="n">
-        <v>-5281023.21151544</v>
+        <v>-11207563.8950994</v>
       </c>
       <c r="D5" t="n">
-        <v>-8077374.9522444</v>
+        <v>-17141236.76244</v>
       </c>
       <c r="E5" t="n">
-        <v>5283845.15115702</v>
+        <v>11210385.834741</v>
       </c>
       <c r="F5" t="n">
-        <v>8080196.89188599</v>
+        <v>17144058.7020816</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>1420.35143810293</v>
       </c>
       <c r="C6" t="n">
-        <v>-163071162.639218</v>
+        <v>-468477934.473888</v>
       </c>
       <c r="D6" t="n">
-        <v>-249396573.549637</v>
+        <v>-716475924.489544</v>
       </c>
       <c r="E6" t="n">
-        <v>163074003.342095</v>
+        <v>468480775.176764</v>
       </c>
       <c r="F6" t="n">
-        <v>249399414.252513</v>
+        <v>716478765.19242</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>1419.43451361272</v>
       </c>
       <c r="C7" t="n">
-        <v>-5115953891.80773</v>
+        <v>-18437084807.2648</v>
       </c>
       <c r="D7" t="n">
-        <v>-7824177042.15563</v>
+        <v>-28197088698.3042</v>
       </c>
       <c r="E7" t="n">
-        <v>5115956730.67676</v>
+        <v>18437087646.1339</v>
       </c>
       <c r="F7" t="n">
-        <v>7824179881.02466</v>
+        <v>28197091537.1732</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>1519.78312714683</v>
       </c>
       <c r="C8" t="n">
-        <v>-128959389086.945</v>
+        <v>-769709026033.162</v>
       </c>
       <c r="D8" t="n">
-        <v>-197226366777.002</v>
+        <v>-1177168372456.67</v>
       </c>
       <c r="E8" t="n">
-        <v>128959392126.511</v>
+        <v>769709029072.728</v>
       </c>
       <c r="F8" t="n">
-        <v>197226369816.568</v>
+        <v>1177168375496.24</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>1581.25789100461</v>
       </c>
       <c r="C9" t="n">
-        <v>-2896729619832</v>
+        <v>-31427073643579.5</v>
       </c>
       <c r="D9" t="n">
-        <v>-4430165653522.65</v>
+        <v>-48063561496880.6</v>
       </c>
       <c r="E9" t="n">
-        <v>2896729622994.52</v>
+        <v>31427073646742</v>
       </c>
       <c r="F9" t="n">
-        <v>4430165656685.16</v>
+        <v>48063561500043.2</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>1443.93537716351</v>
       </c>
       <c r="C10" t="n">
-        <v>-43145540136480.4</v>
+        <v>-1172202265538391</v>
       </c>
       <c r="D10" t="n">
-        <v>-65985409433035.9</v>
+        <v>-1792728661742270</v>
       </c>
       <c r="E10" t="n">
-        <v>43145540139368.3</v>
+        <v>1172202265541279</v>
       </c>
       <c r="F10" t="n">
-        <v>65985409435923.8</v>
+        <v>1792728661745158</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>1379.60468848891</v>
       </c>
       <c r="C11" t="n">
-        <v>-479093986262922</v>
+        <v>-46453136203764776</v>
       </c>
       <c r="D11" t="n">
-        <v>-732711022741372</v>
+        <v>-71043941091533832</v>
       </c>
       <c r="E11" t="n">
-        <v>479093986265681</v>
+        <v>46453136203767528</v>
       </c>
       <c r="F11" t="n">
-        <v>732711022744131</v>
+        <v>71043941091536584</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>1342.88674124662</v>
       </c>
       <c r="C12" t="n">
-        <v>-4450675219761180</v>
+        <v>-1623970856810717184</v>
       </c>
       <c r="D12" t="n">
-        <v>-6806720363148843</v>
+        <v>-2483649099159784448</v>
       </c>
       <c r="E12" t="n">
-        <v>4450675219763866</v>
+        <v>1623970856810719744</v>
       </c>
       <c r="F12" t="n">
-        <v>6806720363151529</v>
+        <v>2483649099159787520</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>1261.01354591642</v>
       </c>
       <c r="C13" t="n">
-        <v>-45850128346607128</v>
+        <v>-50482943368827158528</v>
       </c>
       <c r="D13" t="n">
-        <v>-70121720157004760</v>
+        <v>-77206999309800980480</v>
       </c>
       <c r="E13" t="n">
-        <v>45850128346609656</v>
+        <v>50482943368827158528</v>
       </c>
       <c r="F13" t="n">
-        <v>70121720157007288</v>
+        <v>77206999309800980480</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>1239.5023369375</v>
       </c>
       <c r="C14" t="n">
-        <v>-695026190262435840</v>
+        <v>-1829844178826780475392</v>
       </c>
       <c r="D14" t="n">
-        <v>-1062950830735846528</v>
+        <v>-2798505174699459739648</v>
       </c>
       <c r="E14" t="n">
-        <v>695026190262438400</v>
+        <v>1829844178826780475392</v>
       </c>
       <c r="F14" t="n">
-        <v>1062950830735849088</v>
+        <v>2798505174699459739648</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>1185.24675435992</v>
       </c>
       <c r="C15" t="n">
-        <v>-7132214628359017472</v>
+        <v>-68452498712492070928384</v>
       </c>
       <c r="D15" t="n">
-        <v>-10907780987847346176</v>
+        <v>-104689062645126666387456</v>
       </c>
       <c r="E15" t="n">
-        <v>7132214628359019520</v>
+        <v>68452498712492070928384</v>
       </c>
       <c r="F15" t="n">
-        <v>10907780987847350272</v>
+        <v>104689062645126666387456</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>1505.05893222603</v>
       </c>
       <c r="C16" t="n">
-        <v>-67435806403877314560</v>
+        <v>-3055876274041987096641536</v>
       </c>
       <c r="D16" t="n">
-        <v>-103134165938807226368</v>
+        <v>-4673559456647788248432640</v>
       </c>
       <c r="E16" t="n">
-        <v>67435806403877314560</v>
+        <v>3055876274041987096641536</v>
       </c>
       <c r="F16" t="n">
-        <v>103134165938807226368</v>
+        <v>4673559456647788248432640</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>1387.47961530892</v>
       </c>
       <c r="C17" t="n">
-        <v>-635463099416003477504</v>
+        <v>-110022277208659611141275648</v>
       </c>
       <c r="D17" t="n">
-        <v>-971856944227045867520</v>
+        <v>-168264552612377982503223296</v>
       </c>
       <c r="E17" t="n">
-        <v>635463099416003477504</v>
+        <v>110022277208659611141275648</v>
       </c>
       <c r="F17" t="n">
-        <v>971856944227045867520</v>
+        <v>168264552612377982503223296</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>1397.27064241342</v>
       </c>
       <c r="C18" t="n">
-        <v>-5718271447343545974784</v>
+        <v>-4749869741741995097329762304</v>
       </c>
       <c r="D18" t="n">
-        <v>-8745341500054551134208</v>
+        <v>-7264298897808871624452079616</v>
       </c>
       <c r="E18" t="n">
-        <v>5718271447343545974784</v>
+        <v>4749869741741995097329762304</v>
       </c>
       <c r="F18" t="n">
-        <v>8745341500054551134208</v>
+        <v>7264298897808871624452079616</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>1396.92119032969</v>
       </c>
       <c r="C19" t="n">
-        <v>-52769552505074507317248</v>
+        <v>-133581122853225166942830067712</v>
       </c>
       <c r="D19" t="n">
-        <v>-80704066204538486390784</v>
+        <v>-204294697806781230722991521792</v>
       </c>
       <c r="E19" t="n">
-        <v>52769552505074507317248</v>
+        <v>133581122853225166942830067712</v>
       </c>
       <c r="F19" t="n">
-        <v>80704066204538486390784</v>
+        <v>204294697806781230722991521792</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>1496.25653967067</v>
       </c>
       <c r="C20" t="n">
-        <v>-286318566544215073882112</v>
+        <v>-4227640411149868047962954792960</v>
       </c>
       <c r="D20" t="n">
-        <v>-437886460146707427491840</v>
+        <v>-6465618058777577272324747427840</v>
       </c>
       <c r="E20" t="n">
-        <v>286318566544215073882112</v>
+        <v>4227640411149868047962954792960</v>
       </c>
       <c r="F20" t="n">
-        <v>437886460146707427491840</v>
+        <v>6465618058777577272324747427840</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>1557.36783061766</v>
       </c>
       <c r="C21" t="n">
-        <v>-2765249167656725935816704</v>
+        <v>-108318139305260009422033617158144</v>
       </c>
       <c r="D21" t="n">
-        <v>-4229083653441117352886272</v>
+        <v>-165658298595643636334353721589760</v>
       </c>
       <c r="E21" t="n">
-        <v>2765249167656725935816704</v>
+        <v>108318139305260009422033617158144</v>
       </c>
       <c r="F21" t="n">
-        <v>4229083653441117352886272</v>
+        <v>165658298595643636334353721589760</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>1422.64496694594</v>
       </c>
       <c r="C22" t="n">
-        <v>-40059307685560166362644480</v>
+        <v>-3645650571580160727307625493954560</v>
       </c>
       <c r="D22" t="n">
-        <v>-61265424209396758000697344</v>
+        <v>-5575541408260488085701211275132928</v>
       </c>
       <c r="E22" t="n">
-        <v>40059307685560166362644480</v>
+        <v>3645650571580160727307625493954560</v>
       </c>
       <c r="F22" t="n">
-        <v>61265424209396758000697344</v>
+        <v>5575541408260488085701211275132928</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>1359.7529967553</v>
       </c>
       <c r="C23" t="n">
-        <v>-316482046648442926829404160</v>
+        <v>-96657382565018871946263428211933184</v>
       </c>
       <c r="D23" t="n">
-        <v>-484017522089231710137876480</v>
+        <v>-147824710109765476273038241470349312</v>
       </c>
       <c r="E23" t="n">
-        <v>316482046648442926829404160</v>
+        <v>96657382565018871946263428211933184</v>
       </c>
       <c r="F23" t="n">
-        <v>484017522089231710137876480</v>
+        <v>147824710109765476273038241470349312</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>1324.02967891418</v>
       </c>
       <c r="C24" t="n">
-        <v>-4098492057602329841181392896</v>
+        <v>-2431490268428494140142706216816082944</v>
       </c>
       <c r="D24" t="n">
-        <v>-6268102696601531301989711872</v>
+        <v>-3718643465473275983272872739052978176</v>
       </c>
       <c r="E24" t="n">
-        <v>4098492057602329841181392896</v>
+        <v>2431490268428494140142706216816082944</v>
       </c>
       <c r="F24" t="n">
-        <v>6268102696601531301989711872</v>
+        <v>3718643465473275983272872739052978176</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>1243.73402371234</v>
       </c>
       <c r="C25" t="n">
-        <v>-40101011084126490324801421312</v>
+        <v>-79708875951275134778005129961406464000</v>
       </c>
       <c r="D25" t="n">
-        <v>-61329204053626580038863290368</v>
+        <v>-121904206052201243438846507934510219264</v>
       </c>
       <c r="E25" t="n">
-        <v>40101011084126490324801421312</v>
+        <v>79708875951275134778005129961406464000</v>
       </c>
       <c r="F25" t="n">
-        <v>61329204053626580038863290368</v>
+        <v>121904206052201243438846507934510219264</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>1222.92853829365</v>
       </c>
       <c r="C26" t="n">
-        <v>-387276603220320494739414581248</v>
+        <v>-3330818176562237738227308012185581518848</v>
       </c>
       <c r="D26" t="n">
-        <v>-592288453133195622194543067136</v>
+        <v>-5094046810624540044991039348742924795904</v>
       </c>
       <c r="E26" t="n">
-        <v>387276603220320494739414581248</v>
+        <v>3330818176562237738227308012185581518848</v>
       </c>
       <c r="F26" t="n">
-        <v>592288453133195622194543067136</v>
+        <v>5094046810624540044991039348742924795904</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>1169.78236179598</v>
       </c>
       <c r="C27" t="n">
-        <v>-6318118048750833398907085520896</v>
+        <v>-74439569649861466866813883362127407742976</v>
       </c>
       <c r="D27" t="n">
-        <v>-9662727711125523886682799079424</v>
+        <v>-113845497489903181179227214722871945330688</v>
       </c>
       <c r="E27" t="n">
-        <v>6318118048750833398907085520896</v>
+        <v>74439569649861466866813883362127407742976</v>
       </c>
       <c r="F27" t="n">
-        <v>9662727711125523886682799079424</v>
+        <v>113845497489903181179227214722871945330688</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>1485.89813894824</v>
       </c>
       <c r="C28" t="n">
-        <v>-40695655781243196971860887601152</v>
+        <v>-2990391831475307390890294864089891232284672</v>
       </c>
       <c r="D28" t="n">
-        <v>-62238634638615331480130457436160</v>
+        <v>-4573409644163393687295274513576526945976320</v>
       </c>
       <c r="E28" t="n">
-        <v>40695655781243196971860887601152</v>
+        <v>2990391831475307390890294864089891232284672</v>
       </c>
       <c r="F28" t="n">
-        <v>62238634638615331480130457436160</v>
+        <v>4573409644163393687295274513576526945976320</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>1370.24469435142</v>
       </c>
       <c r="C29" t="n">
-        <v>-207379361629424391876499059245056</v>
+        <v>-68565725390996450355809020622540903739817984</v>
       </c>
       <c r="D29" t="n">
-        <v>-317159364366157289321262594654208</v>
+        <v>-104862227906614510755686366394778939593588736</v>
       </c>
       <c r="E29" t="n">
-        <v>207379361629424391876499059245056</v>
+        <v>68565725390996450355809020622540903739817984</v>
       </c>
       <c r="F29" t="n">
-        <v>317159364366157289321262594654208</v>
+        <v>104862227906614510755686366394778939593588736</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>1380.33611647628</v>
       </c>
       <c r="C30" t="n">
-        <v>-6264590867817844683705208214126592</v>
+        <v>-1885528820138701285121106619809625900125782016</v>
       </c>
       <c r="D30" t="n">
-        <v>-9580864952229799705719303592476672</v>
+        <v>-2883667484510237508906965786354625650458886144</v>
       </c>
       <c r="E30" t="n">
-        <v>6264590867817844683705208214126592</v>
+        <v>1885528820138701285121106619809625900125782016</v>
       </c>
       <c r="F30" t="n">
-        <v>9580864952229799705719303592476672</v>
+        <v>2883667484510237508906965786354625650458886144</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>1380.40303081201</v>
       </c>
       <c r="C31" t="n">
-        <v>-30145753706863426121988252285009920</v>
+        <v>-38589770227748874450232071572329223627187683328</v>
       </c>
       <c r="D31" t="n">
-        <v>-46103951757227098597438106326007808</v>
+        <v>-59017960612394548787198923429376196160031555584</v>
       </c>
       <c r="E31" t="n">
-        <v>30145753706863426121988252285009920</v>
+        <v>38589770227748874450232071572329223627187683328</v>
       </c>
       <c r="F31" t="n">
-        <v>46103951757227098597438106326007808</v>
+        <v>59017960612394548787198923429376196160031555584</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>1478.99495109704</v>
       </c>
       <c r="C32" t="n">
-        <v>-175864761923163015302130665456140288</v>
+        <v>-936136256593958261651706639792303269239425335296</v>
       </c>
       <c r="D32" t="n">
-        <v>-268961943308643679736506138595688448</v>
+        <v>-1431696856276400672932393088763144260558910390272</v>
       </c>
       <c r="E32" t="n">
-        <v>175864761923163015302130665456140288</v>
+        <v>936136256593958261651706639792303269239425335296</v>
       </c>
       <c r="F32" t="n">
-        <v>268961943308643679736506138595688448</v>
+        <v>1431696856276400672932393088763144260558910390272</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>1539.8395692386</v>
       </c>
       <c r="C33" t="n">
-        <v>-2301718501540382766974528886044360704</v>
+        <v>-18790439503736670252152112373949584417178869825536</v>
       </c>
       <c r="D33" t="n">
-        <v>-3520174674868865386178568110802468864</v>
+        <v>-28737497320563992804495032987669498439993539952640</v>
       </c>
       <c r="E33" t="n">
-        <v>2301718501540382766974528886044360704</v>
+        <v>18790439503736670252152112373949584417178869825536</v>
       </c>
       <c r="F33" t="n">
-        <v>3520174674868865386178568110802468864</v>
+        <v>28737497320563992804495032987669498439993539952640</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>1407.02409090065</v>
       </c>
       <c r="C34" t="n">
-        <v>-27757892728899933177237583004094693376</v>
+        <v>-574001933920375720303231458852719676412934051856384</v>
       </c>
       <c r="D34" t="n">
-        <v>-42452033533469792501824412304216686592</v>
+        <v>-877860203043950852768080585487115716396610291236864</v>
       </c>
       <c r="E34" t="n">
-        <v>27757892728899933177237583004094693376</v>
+        <v>574001933920375720303231458852719676412934051856384</v>
       </c>
       <c r="F34" t="n">
-        <v>42452033533469792501824412304216686592</v>
+        <v>877860203043950852768080585487115716396610291236864</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>1345.18772349491</v>
       </c>
       <c r="C35" t="n">
-        <v>-246113950673383724817866051601865637888</v>
+        <v>-9963397492177624209980509222908067790725433645858816</v>
       </c>
       <c r="D35" t="n">
-        <v>-376398806245234708617450023190785949696</v>
+        <v>-15237701527855706204362549319075185370046840946294784</v>
       </c>
       <c r="E35" t="n">
-        <v>246113950673383724817866051601865637888</v>
+        <v>9963397492177624209980509222908067790725433645858816</v>
       </c>
       <c r="F35" t="n">
-        <v>376398806245234708617450023190785949696</v>
+        <v>15237701527855706204362549319075185370046840946294784</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>1310.19417753639</v>
       </c>
       <c r="C36" t="n">
-        <v>-2663030074206424243353743222083248193536</v>
+        <v>-221393539010899506685292182370271968800778054065455104</v>
       </c>
       <c r="D36" t="n">
-        <v>-4072753040548621267322372754594177482752</v>
+        <v>-338592199126087347304523770793835838262860908991610880</v>
       </c>
       <c r="E36" t="n">
-        <v>2663030074206424243353743222083248193536</v>
+        <v>221393539010899506685292182370271968800778054065455104</v>
       </c>
       <c r="F36" t="n">
-        <v>4072753040548621267322372754594177482752</v>
+        <v>338592199126087347304523770793835838262860908991610880</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
